--- a/TakehomeEx/data3/outputFile.xlsx
+++ b/TakehomeEx/data3/outputFile.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9C15A8-6B3A-4022-A9A9-8615206BCBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71B36BE-D4A0-492D-BD75-29989AD6F3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="159">
   <si>
     <t/>
   </si>
@@ -5774,4189 +5774,4083 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.140625" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="38" width="24" customWidth="1"/>
+    <col min="2" max="37" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL1" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>129</v>
+      <c r="B2" s="6">
+        <v>55000084</v>
       </c>
       <c r="C2" s="6">
-        <v>55000084</v>
+        <v>54162780</v>
       </c>
       <c r="D2" s="6">
-        <v>54162780</v>
+        <v>56576348</v>
       </c>
       <c r="E2" s="6">
-        <v>56576348</v>
+        <v>62507132</v>
       </c>
       <c r="F2" s="6">
-        <v>62507132</v>
+        <v>63363749</v>
       </c>
       <c r="G2" s="6">
-        <v>63363749</v>
+        <v>64124991</v>
       </c>
       <c r="H2" s="6">
-        <v>64124991</v>
+        <v>64177050</v>
       </c>
       <c r="I2" s="6">
-        <v>64177050</v>
+        <v>59847424</v>
       </c>
       <c r="J2" s="6">
-        <v>59847424</v>
+        <v>60237343</v>
       </c>
       <c r="K2" s="6">
-        <v>60237343</v>
+        <v>63132579</v>
       </c>
       <c r="L2" s="6">
-        <v>63132579</v>
+        <v>51991457</v>
       </c>
       <c r="M2" s="6">
-        <v>51991457</v>
+        <v>54845697</v>
       </c>
       <c r="N2" s="6">
-        <v>54845697</v>
+        <v>59213794</v>
       </c>
       <c r="O2" s="6">
-        <v>59213794</v>
+        <v>56720130</v>
       </c>
       <c r="P2" s="6">
-        <v>56720130</v>
+        <v>53639342</v>
       </c>
       <c r="Q2" s="6">
-        <v>53639342</v>
+        <v>52034038</v>
       </c>
       <c r="R2" s="6">
-        <v>52034038</v>
+        <v>52038522</v>
       </c>
       <c r="S2" s="6">
-        <v>52038522</v>
+        <v>49834010</v>
       </c>
       <c r="T2" s="6">
-        <v>49834010</v>
+        <v>49618994</v>
       </c>
       <c r="U2" s="6">
-        <v>49618994</v>
+        <v>47355225</v>
       </c>
       <c r="V2" s="6">
-        <v>47355225</v>
+        <v>50591895</v>
       </c>
       <c r="W2" s="6">
-        <v>50591895</v>
+        <v>55444082</v>
       </c>
       <c r="X2" s="6">
-        <v>55444082</v>
+        <v>42602227</v>
       </c>
       <c r="Y2" s="6">
-        <v>42602227</v>
+        <v>44988833</v>
       </c>
       <c r="Z2" s="6">
-        <v>44988833</v>
+        <v>46246876</v>
       </c>
       <c r="AA2" s="6">
-        <v>46246876</v>
+        <v>43291938</v>
       </c>
       <c r="AB2" s="6">
-        <v>43291938</v>
+        <v>44088350</v>
       </c>
       <c r="AC2" s="6">
-        <v>44088350</v>
+        <v>43907435</v>
       </c>
       <c r="AD2" s="6">
-        <v>43907435</v>
+        <v>44333640</v>
       </c>
       <c r="AE2" s="6">
-        <v>44333640</v>
+        <v>42892684</v>
       </c>
       <c r="AF2" s="6">
-        <v>42892684</v>
+        <v>40640766</v>
       </c>
       <c r="AG2" s="6">
-        <v>40640766</v>
+        <v>36482259</v>
       </c>
       <c r="AH2" s="6">
-        <v>36482259</v>
+        <v>39946596</v>
       </c>
       <c r="AI2" s="6">
-        <v>39946596</v>
+        <v>45800019</v>
       </c>
       <c r="AJ2" s="6">
-        <v>45800019</v>
+        <v>43512320</v>
       </c>
       <c r="AK2" s="6">
-        <v>43512320</v>
-      </c>
-      <c r="AL2" s="6">
         <v>44501656</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>54</v>
+      <c r="B3" s="6">
+        <v>34715</v>
       </c>
       <c r="C3" s="6">
-        <v>34715</v>
+        <v>39245</v>
       </c>
       <c r="D3" s="6">
-        <v>39245</v>
+        <v>34100</v>
       </c>
       <c r="E3" s="6">
-        <v>34100</v>
+        <v>32106</v>
       </c>
       <c r="F3" s="6">
-        <v>32106</v>
+        <v>30294</v>
       </c>
       <c r="G3" s="6">
-        <v>30294</v>
+        <v>34760</v>
       </c>
       <c r="H3" s="6">
-        <v>34760</v>
+        <v>36586</v>
       </c>
       <c r="I3" s="6">
-        <v>36586</v>
+        <v>29561</v>
       </c>
       <c r="J3" s="6">
-        <v>29561</v>
+        <v>38091</v>
       </c>
       <c r="K3" s="6">
-        <v>38091</v>
+        <v>30352</v>
       </c>
       <c r="L3" s="6">
-        <v>30352</v>
+        <v>24687</v>
       </c>
       <c r="M3" s="6">
-        <v>24687</v>
+        <v>33964</v>
       </c>
       <c r="N3" s="6">
-        <v>33964</v>
+        <v>42687</v>
       </c>
       <c r="O3" s="6">
-        <v>42687</v>
+        <v>34424</v>
       </c>
       <c r="P3" s="6">
-        <v>34424</v>
+        <v>33466</v>
       </c>
       <c r="Q3" s="6">
-        <v>33466</v>
+        <v>32600</v>
       </c>
       <c r="R3" s="6">
-        <v>32600</v>
+        <v>37162</v>
       </c>
       <c r="S3" s="6">
-        <v>37162</v>
+        <v>29598</v>
       </c>
       <c r="T3" s="6">
-        <v>29598</v>
+        <v>26280</v>
       </c>
       <c r="U3" s="6">
-        <v>26280</v>
+        <v>29938</v>
       </c>
       <c r="V3" s="6">
-        <v>29938</v>
+        <v>29674</v>
       </c>
       <c r="W3" s="6">
-        <v>29674</v>
+        <v>32343</v>
       </c>
       <c r="X3" s="6">
-        <v>32343</v>
+        <v>28419</v>
       </c>
       <c r="Y3" s="6">
-        <v>28419</v>
+        <v>29376</v>
       </c>
       <c r="Z3" s="6">
-        <v>29376</v>
+        <v>33775</v>
       </c>
       <c r="AA3" s="6">
-        <v>33775</v>
+        <v>24995</v>
       </c>
       <c r="AB3" s="6">
-        <v>24995</v>
+        <v>29013</v>
       </c>
       <c r="AC3" s="6">
-        <v>29013</v>
+        <v>27938</v>
       </c>
       <c r="AD3" s="6">
-        <v>27938</v>
+        <v>24845</v>
       </c>
       <c r="AE3" s="6">
-        <v>24845</v>
+        <v>28971</v>
       </c>
       <c r="AF3" s="6">
-        <v>28971</v>
+        <v>26760</v>
       </c>
       <c r="AG3" s="6">
-        <v>26760</v>
+        <v>21233</v>
       </c>
       <c r="AH3" s="6">
-        <v>21233</v>
+        <v>20739</v>
       </c>
       <c r="AI3" s="6">
-        <v>20739</v>
+        <v>24706</v>
       </c>
       <c r="AJ3" s="6">
-        <v>24706</v>
+        <v>27476</v>
       </c>
       <c r="AK3" s="6">
-        <v>27476</v>
-      </c>
-      <c r="AL3" s="6">
         <v>29015</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
+      <c r="B4" s="6">
+        <v>28472</v>
       </c>
       <c r="C4" s="6">
-        <v>28472</v>
+        <v>30639</v>
       </c>
       <c r="D4" s="6">
-        <v>30639</v>
+        <v>26624</v>
       </c>
       <c r="E4" s="6">
-        <v>26624</v>
+        <v>31730</v>
       </c>
       <c r="F4" s="6">
-        <v>31730</v>
+        <v>29725</v>
       </c>
       <c r="G4" s="6">
-        <v>29725</v>
+        <v>33630</v>
       </c>
       <c r="H4" s="6">
-        <v>33630</v>
+        <v>33932</v>
       </c>
       <c r="I4" s="6">
-        <v>33932</v>
+        <v>23230</v>
       </c>
       <c r="J4" s="6">
-        <v>23230</v>
+        <v>32946</v>
       </c>
       <c r="K4" s="6">
-        <v>32946</v>
+        <v>37953</v>
       </c>
       <c r="L4" s="6">
-        <v>37953</v>
+        <v>24828</v>
       </c>
       <c r="M4" s="6">
-        <v>24828</v>
+        <v>33264</v>
       </c>
       <c r="N4" s="6">
-        <v>33264</v>
+        <v>38835</v>
       </c>
       <c r="O4" s="6">
-        <v>38835</v>
+        <v>29986</v>
       </c>
       <c r="P4" s="6">
-        <v>29986</v>
+        <v>32671</v>
       </c>
       <c r="Q4" s="6">
-        <v>32671</v>
+        <v>31508</v>
       </c>
       <c r="R4" s="6">
-        <v>31508</v>
+        <v>33539</v>
       </c>
       <c r="S4" s="6">
-        <v>33539</v>
+        <v>35974</v>
       </c>
       <c r="T4" s="6">
-        <v>35974</v>
+        <v>27912</v>
       </c>
       <c r="U4" s="6">
-        <v>27912</v>
+        <v>23121</v>
       </c>
       <c r="V4" s="6">
-        <v>23121</v>
+        <v>34550</v>
       </c>
       <c r="W4" s="6">
-        <v>34550</v>
+        <v>36718</v>
       </c>
       <c r="X4" s="6">
-        <v>36718</v>
+        <v>23753</v>
       </c>
       <c r="Y4" s="6">
-        <v>23753</v>
+        <v>27653</v>
       </c>
       <c r="Z4" s="6">
-        <v>27653</v>
+        <v>31501</v>
       </c>
       <c r="AA4" s="6">
-        <v>31501</v>
+        <v>28614</v>
       </c>
       <c r="AB4" s="6">
-        <v>28614</v>
+        <v>30391</v>
       </c>
       <c r="AC4" s="6">
-        <v>30391</v>
+        <v>28107</v>
       </c>
       <c r="AD4" s="6">
-        <v>28107</v>
+        <v>28785</v>
       </c>
       <c r="AE4" s="6">
-        <v>28785</v>
+        <v>31040</v>
       </c>
       <c r="AF4" s="6">
-        <v>31040</v>
+        <v>29763</v>
       </c>
       <c r="AG4" s="6">
-        <v>29763</v>
+        <v>31798</v>
       </c>
       <c r="AH4" s="6">
-        <v>31798</v>
+        <v>30627</v>
       </c>
       <c r="AI4" s="6">
-        <v>30627</v>
+        <v>33431</v>
       </c>
       <c r="AJ4" s="6">
-        <v>33431</v>
+        <v>33142</v>
       </c>
       <c r="AK4" s="6">
-        <v>33142</v>
-      </c>
-      <c r="AL4" s="6">
         <v>27747</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>56</v>
+      <c r="B5" s="6">
+        <v>120386</v>
       </c>
       <c r="C5" s="6">
-        <v>120386</v>
+        <v>129888</v>
       </c>
       <c r="D5" s="6">
-        <v>129888</v>
+        <v>133696</v>
       </c>
       <c r="E5" s="6">
-        <v>133696</v>
+        <v>153169</v>
       </c>
       <c r="F5" s="6">
-        <v>153169</v>
+        <v>131296</v>
       </c>
       <c r="G5" s="6">
-        <v>131296</v>
+        <v>123836</v>
       </c>
       <c r="H5" s="6">
-        <v>123836</v>
+        <v>137612</v>
       </c>
       <c r="I5" s="6">
-        <v>137612</v>
+        <v>135067</v>
       </c>
       <c r="J5" s="6">
-        <v>135067</v>
+        <v>129259</v>
       </c>
       <c r="K5" s="6">
-        <v>129259</v>
+        <v>139194</v>
       </c>
       <c r="L5" s="6">
-        <v>139194</v>
+        <v>117234</v>
       </c>
       <c r="M5" s="6">
-        <v>117234</v>
+        <v>126190</v>
       </c>
       <c r="N5" s="6">
-        <v>126190</v>
+        <v>131059</v>
       </c>
       <c r="O5" s="6">
-        <v>131059</v>
+        <v>135278</v>
       </c>
       <c r="P5" s="6">
-        <v>135278</v>
+        <v>109314</v>
       </c>
       <c r="Q5" s="6">
-        <v>109314</v>
+        <v>125273</v>
       </c>
       <c r="R5" s="6">
-        <v>125273</v>
+        <v>100721</v>
       </c>
       <c r="S5" s="6">
-        <v>100721</v>
+        <v>113431</v>
       </c>
       <c r="T5" s="6">
-        <v>113431</v>
+        <v>106829</v>
       </c>
       <c r="U5" s="6">
-        <v>106829</v>
+        <v>93770</v>
       </c>
       <c r="V5" s="6">
-        <v>93770</v>
+        <v>105717</v>
       </c>
       <c r="W5" s="6">
-        <v>105717</v>
+        <v>124843</v>
       </c>
       <c r="X5" s="6">
-        <v>124843</v>
+        <v>109020</v>
       </c>
       <c r="Y5" s="6">
-        <v>109020</v>
+        <v>103961</v>
       </c>
       <c r="Z5" s="6">
-        <v>103961</v>
+        <v>135492</v>
       </c>
       <c r="AA5" s="6">
-        <v>135492</v>
+        <v>104161</v>
       </c>
       <c r="AB5" s="6">
-        <v>104161</v>
+        <v>101783</v>
       </c>
       <c r="AC5" s="6">
-        <v>101783</v>
+        <v>97982</v>
       </c>
       <c r="AD5" s="6">
-        <v>97982</v>
+        <v>106351</v>
       </c>
       <c r="AE5" s="6">
-        <v>106351</v>
+        <v>92733</v>
       </c>
       <c r="AF5" s="6">
-        <v>92733</v>
+        <v>96076</v>
       </c>
       <c r="AG5" s="6">
-        <v>96076</v>
+        <v>98530</v>
       </c>
       <c r="AH5" s="6">
-        <v>98530</v>
+        <v>107458</v>
       </c>
       <c r="AI5" s="6">
-        <v>107458</v>
+        <v>117440</v>
       </c>
       <c r="AJ5" s="6">
-        <v>117440</v>
+        <v>127286</v>
       </c>
       <c r="AK5" s="6">
-        <v>127286</v>
-      </c>
-      <c r="AL5" s="6">
         <v>114916</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>57</v>
+      <c r="B6" s="6">
+        <v>367778</v>
       </c>
       <c r="C6" s="6">
-        <v>367778</v>
+        <v>419441</v>
       </c>
       <c r="D6" s="6">
-        <v>419441</v>
+        <v>364536</v>
       </c>
       <c r="E6" s="6">
-        <v>364536</v>
+        <v>357542</v>
       </c>
       <c r="F6" s="6">
-        <v>357542</v>
+        <v>300842</v>
       </c>
       <c r="G6" s="6">
-        <v>300842</v>
+        <v>328137</v>
       </c>
       <c r="H6" s="6">
-        <v>328137</v>
+        <v>340230</v>
       </c>
       <c r="I6" s="6">
-        <v>340230</v>
+        <v>296939</v>
       </c>
       <c r="J6" s="6">
-        <v>296939</v>
+        <v>293849</v>
       </c>
       <c r="K6" s="6">
-        <v>293849</v>
+        <v>303505</v>
       </c>
       <c r="L6" s="6">
-        <v>303505</v>
+        <v>203084</v>
       </c>
       <c r="M6" s="6">
-        <v>203084</v>
+        <v>295149</v>
       </c>
       <c r="N6" s="6">
-        <v>295149</v>
+        <v>463371</v>
       </c>
       <c r="O6" s="6">
-        <v>463371</v>
+        <v>361464</v>
       </c>
       <c r="P6" s="6">
-        <v>361464</v>
+        <v>353187</v>
       </c>
       <c r="Q6" s="6">
-        <v>353187</v>
+        <v>334354</v>
       </c>
       <c r="R6" s="6">
-        <v>334354</v>
+        <v>388941</v>
       </c>
       <c r="S6" s="6">
-        <v>388941</v>
+        <v>280162</v>
       </c>
       <c r="T6" s="6">
-        <v>280162</v>
+        <v>357159</v>
       </c>
       <c r="U6" s="6">
-        <v>357159</v>
+        <v>307051</v>
       </c>
       <c r="V6" s="6">
-        <v>307051</v>
+        <v>298976</v>
       </c>
       <c r="W6" s="6">
-        <v>298976</v>
+        <v>318952</v>
       </c>
       <c r="X6" s="6">
-        <v>318952</v>
+        <v>263298</v>
       </c>
       <c r="Y6" s="6">
-        <v>263298</v>
+        <v>330491</v>
       </c>
       <c r="Z6" s="6">
-        <v>330491</v>
+        <v>400808</v>
       </c>
       <c r="AA6" s="6">
-        <v>400808</v>
+        <v>363663</v>
       </c>
       <c r="AB6" s="6">
-        <v>363663</v>
+        <v>383350</v>
       </c>
       <c r="AC6" s="6">
-        <v>383350</v>
+        <v>296704</v>
       </c>
       <c r="AD6" s="6">
-        <v>296704</v>
+        <v>289660</v>
       </c>
       <c r="AE6" s="6">
-        <v>289660</v>
+        <v>238818</v>
       </c>
       <c r="AF6" s="6">
-        <v>238818</v>
+        <v>189213</v>
       </c>
       <c r="AG6" s="6">
-        <v>189213</v>
+        <v>145937</v>
       </c>
       <c r="AH6" s="6">
-        <v>145937</v>
+        <v>203897</v>
       </c>
       <c r="AI6" s="6">
-        <v>203897</v>
+        <v>166023</v>
       </c>
       <c r="AJ6" s="6">
-        <v>166023</v>
+        <v>190794</v>
       </c>
       <c r="AK6" s="6">
-        <v>190794</v>
-      </c>
-      <c r="AL6" s="6">
         <v>269089</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>58</v>
+      <c r="B7" s="6">
+        <v>51247</v>
       </c>
       <c r="C7" s="6">
-        <v>51247</v>
+        <v>53273</v>
       </c>
       <c r="D7" s="6">
-        <v>53273</v>
+        <v>47552</v>
       </c>
       <c r="E7" s="6">
-        <v>47552</v>
+        <v>44387</v>
       </c>
       <c r="F7" s="6">
-        <v>44387</v>
+        <v>55078</v>
       </c>
       <c r="G7" s="6">
-        <v>55078</v>
+        <v>45328</v>
       </c>
       <c r="H7" s="6">
-        <v>45328</v>
+        <v>53944</v>
       </c>
       <c r="I7" s="6">
-        <v>53944</v>
+        <v>45408</v>
       </c>
       <c r="J7" s="6">
-        <v>45408</v>
+        <v>55936</v>
       </c>
       <c r="K7" s="6">
-        <v>55936</v>
+        <v>61505</v>
       </c>
       <c r="L7" s="6">
-        <v>61505</v>
+        <v>45507</v>
       </c>
       <c r="M7" s="6">
-        <v>45507</v>
+        <v>62746</v>
       </c>
       <c r="N7" s="6">
-        <v>62746</v>
+        <v>91191</v>
       </c>
       <c r="O7" s="6">
-        <v>91191</v>
+        <v>80096</v>
       </c>
       <c r="P7" s="6">
-        <v>80096</v>
+        <v>64231</v>
       </c>
       <c r="Q7" s="6">
-        <v>64231</v>
+        <v>88350</v>
       </c>
       <c r="R7" s="6">
-        <v>88350</v>
+        <v>76175</v>
       </c>
       <c r="S7" s="6">
-        <v>76175</v>
+        <v>66159</v>
       </c>
       <c r="T7" s="6">
-        <v>66159</v>
+        <v>71478</v>
       </c>
       <c r="U7" s="6">
-        <v>71478</v>
+        <v>61224</v>
       </c>
       <c r="V7" s="6">
-        <v>61224</v>
+        <v>80520</v>
       </c>
       <c r="W7" s="6">
-        <v>80520</v>
+        <v>97242</v>
       </c>
       <c r="X7" s="6">
-        <v>97242</v>
+        <v>57744</v>
       </c>
       <c r="Y7" s="6">
-        <v>57744</v>
+        <v>80955</v>
       </c>
       <c r="Z7" s="6">
-        <v>80955</v>
+        <v>74882</v>
       </c>
       <c r="AA7" s="6">
-        <v>74882</v>
+        <v>62025</v>
       </c>
       <c r="AB7" s="6">
-        <v>62025</v>
+        <v>52226</v>
       </c>
       <c r="AC7" s="6">
-        <v>52226</v>
+        <v>63410</v>
       </c>
       <c r="AD7" s="6">
-        <v>63410</v>
+        <v>76776</v>
       </c>
       <c r="AE7" s="6">
-        <v>76776</v>
+        <v>94066</v>
       </c>
       <c r="AF7" s="6">
-        <v>94066</v>
+        <v>81293</v>
       </c>
       <c r="AG7" s="6">
-        <v>81293</v>
+        <v>84043</v>
       </c>
       <c r="AH7" s="6">
-        <v>84043</v>
+        <v>67749</v>
       </c>
       <c r="AI7" s="6">
-        <v>67749</v>
+        <v>103203</v>
       </c>
       <c r="AJ7" s="6">
-        <v>103203</v>
+        <v>76259</v>
       </c>
       <c r="AK7" s="6">
-        <v>76259</v>
-      </c>
-      <c r="AL7" s="6">
         <v>98556</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>59</v>
+      <c r="B8" s="6">
+        <v>105238</v>
       </c>
       <c r="C8" s="6">
-        <v>105238</v>
+        <v>115158</v>
       </c>
       <c r="D8" s="6">
-        <v>115158</v>
+        <v>123210</v>
       </c>
       <c r="E8" s="6">
-        <v>123210</v>
+        <v>134495</v>
       </c>
       <c r="F8" s="6">
-        <v>134495</v>
+        <v>124870</v>
       </c>
       <c r="G8" s="6">
-        <v>124870</v>
+        <v>132652</v>
       </c>
       <c r="H8" s="6">
-        <v>132652</v>
+        <v>151057</v>
       </c>
       <c r="I8" s="6">
-        <v>151057</v>
+        <v>114346</v>
       </c>
       <c r="J8" s="6">
-        <v>114346</v>
+        <v>139350</v>
       </c>
       <c r="K8" s="6">
-        <v>139350</v>
+        <v>174362</v>
       </c>
       <c r="L8" s="6">
-        <v>174362</v>
+        <v>111739</v>
       </c>
       <c r="M8" s="6">
-        <v>111739</v>
+        <v>106613</v>
       </c>
       <c r="N8" s="6">
-        <v>106613</v>
+        <v>125589</v>
       </c>
       <c r="O8" s="6">
-        <v>125589</v>
+        <v>142321</v>
       </c>
       <c r="P8" s="6">
-        <v>142321</v>
+        <v>106257</v>
       </c>
       <c r="Q8" s="6">
-        <v>106257</v>
+        <v>102755</v>
       </c>
       <c r="R8" s="6">
-        <v>102755</v>
+        <v>95965</v>
       </c>
       <c r="S8" s="6">
-        <v>95965</v>
+        <v>90232</v>
       </c>
       <c r="T8" s="6">
-        <v>90232</v>
+        <v>88376</v>
       </c>
       <c r="U8" s="6">
-        <v>88376</v>
+        <v>86903</v>
       </c>
       <c r="V8" s="6">
-        <v>86903</v>
+        <v>120660</v>
       </c>
       <c r="W8" s="6">
-        <v>120660</v>
+        <v>129871</v>
       </c>
       <c r="X8" s="6">
-        <v>129871</v>
+        <v>113649</v>
       </c>
       <c r="Y8" s="6">
-        <v>113649</v>
+        <v>81507</v>
       </c>
       <c r="Z8" s="6">
-        <v>81507</v>
+        <v>125386</v>
       </c>
       <c r="AA8" s="6">
-        <v>125386</v>
+        <v>88970</v>
       </c>
       <c r="AB8" s="6">
-        <v>88970</v>
+        <v>106519</v>
       </c>
       <c r="AC8" s="6">
-        <v>106519</v>
+        <v>100345</v>
       </c>
       <c r="AD8" s="6">
-        <v>100345</v>
+        <v>96054</v>
       </c>
       <c r="AE8" s="6">
-        <v>96054</v>
+        <v>84858</v>
       </c>
       <c r="AF8" s="6">
-        <v>84858</v>
+        <v>66905</v>
       </c>
       <c r="AG8" s="6">
-        <v>66905</v>
+        <v>59516</v>
       </c>
       <c r="AH8" s="6">
-        <v>59516</v>
+        <v>71739</v>
       </c>
       <c r="AI8" s="6">
-        <v>71739</v>
+        <v>115882</v>
       </c>
       <c r="AJ8" s="6">
-        <v>115882</v>
+        <v>117418</v>
       </c>
       <c r="AK8" s="6">
-        <v>117418</v>
-      </c>
-      <c r="AL8" s="6">
         <v>95951</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>60</v>
+      <c r="B9" s="6">
+        <v>8156</v>
       </c>
       <c r="C9" s="6">
-        <v>8156</v>
+        <v>14992</v>
       </c>
       <c r="D9" s="6">
-        <v>14992</v>
+        <v>5628</v>
       </c>
       <c r="E9" s="6">
-        <v>5628</v>
+        <v>9837</v>
       </c>
       <c r="F9" s="6">
-        <v>9837</v>
+        <v>10153</v>
       </c>
       <c r="G9" s="6">
-        <v>10153</v>
+        <v>11960</v>
       </c>
       <c r="H9" s="6">
-        <v>11960</v>
+        <v>17673</v>
       </c>
       <c r="I9" s="6">
-        <v>17673</v>
+        <v>10115</v>
       </c>
       <c r="J9" s="6">
-        <v>10115</v>
+        <v>13096</v>
       </c>
       <c r="K9" s="6">
-        <v>13096</v>
+        <v>14093</v>
       </c>
       <c r="L9" s="6">
-        <v>14093</v>
+        <v>8332</v>
       </c>
       <c r="M9" s="6">
-        <v>8332</v>
+        <v>10435</v>
       </c>
       <c r="N9" s="6">
-        <v>10435</v>
+        <v>9030</v>
       </c>
       <c r="O9" s="6">
-        <v>9030</v>
+        <v>9882</v>
       </c>
       <c r="P9" s="6">
-        <v>9882</v>
+        <v>8181</v>
       </c>
       <c r="Q9" s="6">
-        <v>8181</v>
+        <v>6283</v>
       </c>
       <c r="R9" s="6">
-        <v>6283</v>
+        <v>9731</v>
       </c>
       <c r="S9" s="6">
-        <v>9731</v>
+        <v>9745</v>
       </c>
       <c r="T9" s="6">
-        <v>9745</v>
+        <v>7888</v>
       </c>
       <c r="U9" s="6">
-        <v>7888</v>
+        <v>7492</v>
       </c>
       <c r="V9" s="6">
-        <v>7492</v>
+        <v>7833</v>
       </c>
       <c r="W9" s="6">
-        <v>7833</v>
+        <v>12881</v>
       </c>
       <c r="X9" s="6">
-        <v>12881</v>
+        <v>9651</v>
       </c>
       <c r="Y9" s="6">
-        <v>9651</v>
+        <v>6079</v>
       </c>
       <c r="Z9" s="6">
-        <v>6079</v>
+        <v>3876</v>
       </c>
       <c r="AA9" s="6">
-        <v>3876</v>
+        <v>3402</v>
       </c>
       <c r="AB9" s="6">
-        <v>3402</v>
+        <v>4403</v>
       </c>
       <c r="AC9" s="6">
-        <v>4403</v>
+        <v>4088</v>
       </c>
       <c r="AD9" s="6">
-        <v>4088</v>
+        <v>4827</v>
       </c>
       <c r="AE9" s="6">
-        <v>4827</v>
+        <v>15868</v>
       </c>
       <c r="AF9" s="6">
-        <v>15868</v>
+        <v>4007</v>
       </c>
       <c r="AG9" s="6">
-        <v>4007</v>
+        <v>45358</v>
       </c>
       <c r="AH9" s="6">
-        <v>45358</v>
+        <v>3660</v>
       </c>
       <c r="AI9" s="6">
-        <v>3660</v>
+        <v>48325</v>
       </c>
       <c r="AJ9" s="6">
-        <v>48325</v>
+        <v>6676</v>
       </c>
       <c r="AK9" s="6">
-        <v>6676</v>
-      </c>
-      <c r="AL9" s="6">
         <v>6507</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>61</v>
+      <c r="B10" s="6">
+        <v>143444</v>
       </c>
       <c r="C10" s="6">
-        <v>143444</v>
+        <v>156876</v>
       </c>
       <c r="D10" s="6">
-        <v>156876</v>
+        <v>149170</v>
       </c>
       <c r="E10" s="6">
-        <v>149170</v>
+        <v>140184</v>
       </c>
       <c r="F10" s="6">
-        <v>140184</v>
+        <v>131440</v>
       </c>
       <c r="G10" s="6">
-        <v>131440</v>
+        <v>131108</v>
       </c>
       <c r="H10" s="6">
-        <v>131108</v>
+        <v>193898</v>
       </c>
       <c r="I10" s="6">
-        <v>193898</v>
+        <v>156642</v>
       </c>
       <c r="J10" s="6">
-        <v>156642</v>
+        <v>171372</v>
       </c>
       <c r="K10" s="6">
-        <v>171372</v>
+        <v>181282</v>
       </c>
       <c r="L10" s="6">
-        <v>181282</v>
+        <v>161097</v>
       </c>
       <c r="M10" s="6">
-        <v>161097</v>
+        <v>160131</v>
       </c>
       <c r="N10" s="6">
-        <v>160131</v>
+        <v>169717</v>
       </c>
       <c r="O10" s="6">
-        <v>169717</v>
+        <v>143924</v>
       </c>
       <c r="P10" s="6">
-        <v>143924</v>
+        <v>155255</v>
       </c>
       <c r="Q10" s="6">
-        <v>155255</v>
+        <v>141300</v>
       </c>
       <c r="R10" s="6">
-        <v>141300</v>
+        <v>129164</v>
       </c>
       <c r="S10" s="6">
-        <v>129164</v>
+        <v>152516</v>
       </c>
       <c r="T10" s="6">
-        <v>152516</v>
+        <v>164068</v>
       </c>
       <c r="U10" s="6">
-        <v>164068</v>
+        <v>150817</v>
       </c>
       <c r="V10" s="6">
-        <v>150817</v>
+        <v>147666</v>
       </c>
       <c r="W10" s="6">
-        <v>147666</v>
+        <v>188267</v>
       </c>
       <c r="X10" s="6">
-        <v>188267</v>
+        <v>119665</v>
       </c>
       <c r="Y10" s="6">
-        <v>119665</v>
+        <v>89470</v>
       </c>
       <c r="Z10" s="6">
-        <v>89470</v>
+        <v>130646</v>
       </c>
       <c r="AA10" s="6">
-        <v>130646</v>
+        <v>75897</v>
       </c>
       <c r="AB10" s="6">
-        <v>75897</v>
+        <v>90628</v>
       </c>
       <c r="AC10" s="6">
-        <v>90628</v>
+        <v>88379</v>
       </c>
       <c r="AD10" s="6">
-        <v>88379</v>
+        <v>61818</v>
       </c>
       <c r="AE10" s="6">
-        <v>61818</v>
+        <v>83764</v>
       </c>
       <c r="AF10" s="6">
-        <v>83764</v>
+        <v>62059</v>
       </c>
       <c r="AG10" s="6">
-        <v>62059</v>
+        <v>42022</v>
       </c>
       <c r="AH10" s="6">
-        <v>42022</v>
+        <v>77371</v>
       </c>
       <c r="AI10" s="6">
-        <v>77371</v>
+        <v>107868</v>
       </c>
       <c r="AJ10" s="6">
-        <v>107868</v>
+        <v>120095</v>
       </c>
       <c r="AK10" s="6">
-        <v>120095</v>
-      </c>
-      <c r="AL10" s="6">
         <v>83574</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>62</v>
+      <c r="B11" s="6">
+        <v>10045</v>
       </c>
       <c r="C11" s="6">
-        <v>10045</v>
+        <v>16477</v>
       </c>
       <c r="D11" s="6">
-        <v>16477</v>
+        <v>16302</v>
       </c>
       <c r="E11" s="6">
-        <v>16302</v>
+        <v>14652</v>
       </c>
       <c r="F11" s="6">
-        <v>14652</v>
+        <v>27286</v>
       </c>
       <c r="G11" s="6">
-        <v>27286</v>
+        <v>11070</v>
       </c>
       <c r="H11" s="6">
-        <v>11070</v>
+        <v>17032</v>
       </c>
       <c r="I11" s="6">
-        <v>17032</v>
+        <v>14141</v>
       </c>
       <c r="J11" s="6">
-        <v>14141</v>
+        <v>11276</v>
       </c>
       <c r="K11" s="6">
-        <v>11276</v>
+        <v>16245</v>
       </c>
       <c r="L11" s="6">
-        <v>16245</v>
+        <v>16895</v>
       </c>
       <c r="M11" s="6">
-        <v>16895</v>
+        <v>15453</v>
       </c>
       <c r="N11" s="6">
-        <v>15453</v>
+        <v>15675</v>
       </c>
       <c r="O11" s="6">
-        <v>15675</v>
+        <v>14026</v>
       </c>
       <c r="P11" s="6">
-        <v>14026</v>
+        <v>15780</v>
       </c>
       <c r="Q11" s="6">
-        <v>15780</v>
+        <v>14695</v>
       </c>
       <c r="R11" s="6">
-        <v>14695</v>
+        <v>15263</v>
       </c>
       <c r="S11" s="6">
-        <v>15263</v>
+        <v>12792</v>
       </c>
       <c r="T11" s="6">
-        <v>12792</v>
+        <v>13246</v>
       </c>
       <c r="U11" s="6">
-        <v>13246</v>
+        <v>13234</v>
       </c>
       <c r="V11" s="6">
-        <v>13234</v>
+        <v>16419</v>
       </c>
       <c r="W11" s="6">
-        <v>16419</v>
+        <v>18134</v>
       </c>
       <c r="X11" s="6">
-        <v>18134</v>
+        <v>8802</v>
       </c>
       <c r="Y11" s="6">
-        <v>8802</v>
+        <v>12749</v>
       </c>
       <c r="Z11" s="6">
-        <v>12749</v>
+        <v>12764</v>
       </c>
       <c r="AA11" s="6">
-        <v>12764</v>
+        <v>12702</v>
       </c>
       <c r="AB11" s="6">
-        <v>12702</v>
+        <v>13911</v>
       </c>
       <c r="AC11" s="6">
-        <v>13911</v>
+        <v>14440</v>
       </c>
       <c r="AD11" s="6">
-        <v>14440</v>
+        <v>11271</v>
       </c>
       <c r="AE11" s="6">
-        <v>11271</v>
+        <v>12147</v>
       </c>
       <c r="AF11" s="6">
-        <v>12147</v>
+        <v>17597</v>
       </c>
       <c r="AG11" s="6">
-        <v>17597</v>
+        <v>10245</v>
       </c>
       <c r="AH11" s="6">
-        <v>10245</v>
+        <v>16112</v>
       </c>
       <c r="AI11" s="6">
-        <v>16112</v>
+        <v>10802</v>
       </c>
       <c r="AJ11" s="6">
-        <v>10802</v>
+        <v>23175</v>
       </c>
       <c r="AK11" s="6">
-        <v>23175</v>
-      </c>
-      <c r="AL11" s="6">
         <v>32194</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>63</v>
+      <c r="B12" s="6">
+        <v>0</v>
       </c>
       <c r="C12" s="6">
+        <v>44</v>
+      </c>
+      <c r="D12" s="6">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6">
+        <v>56</v>
+      </c>
+      <c r="F12" s="6">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>12</v>
+      </c>
+      <c r="I12" s="6">
+        <v>4</v>
+      </c>
+      <c r="J12" s="6">
+        <v>28</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
+        <v>18</v>
+      </c>
+      <c r="M12" s="6">
+        <v>270</v>
+      </c>
+      <c r="N12" s="6">
+        <v>100</v>
+      </c>
+      <c r="O12" s="6">
         <v>0</v>
       </c>
-      <c r="D12" s="6">
-        <v>44</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="P12" s="6">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>22</v>
+      </c>
+      <c r="R12" s="6">
+        <v>11</v>
+      </c>
+      <c r="S12" s="6">
+        <v>94</v>
+      </c>
+      <c r="T12" s="6">
+        <v>5</v>
+      </c>
+      <c r="U12" s="6">
         <v>34</v>
       </c>
-      <c r="F12" s="6">
-        <v>56</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="V12" s="6">
+        <v>38</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <v>17</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>11</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>49</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="6">
         <v>34</v>
       </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>12</v>
-      </c>
-      <c r="J12" s="6">
-        <v>4</v>
-      </c>
-      <c r="K12" s="6">
-        <v>28</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
-        <v>18</v>
-      </c>
-      <c r="N12" s="6">
-        <v>270</v>
-      </c>
-      <c r="O12" s="6">
-        <v>100</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>6</v>
-      </c>
-      <c r="R12" s="6">
-        <v>22</v>
-      </c>
-      <c r="S12" s="6">
-        <v>11</v>
-      </c>
-      <c r="T12" s="6">
-        <v>94</v>
-      </c>
-      <c r="U12" s="6">
+      <c r="AE12" s="6">
+        <v>7</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>9</v>
+      </c>
+      <c r="AG12" s="6">
         <v>5</v>
       </c>
-      <c r="V12" s="6">
-        <v>34</v>
-      </c>
-      <c r="W12" s="6">
-        <v>38</v>
-      </c>
-      <c r="X12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>17</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>14</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>11</v>
-      </c>
-      <c r="AB12" s="6">
-        <v>4</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>49</v>
-      </c>
-      <c r="AD12" s="6">
-        <v>8</v>
-      </c>
-      <c r="AE12" s="6">
-        <v>34</v>
-      </c>
-      <c r="AF12" s="6">
-        <v>7</v>
-      </c>
-      <c r="AG12" s="6">
+      <c r="AH12" s="6">
+        <v>20</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>5</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="6">
         <v>9</v>
       </c>
-      <c r="AH12" s="6">
-        <v>5</v>
-      </c>
-      <c r="AI12" s="6">
-        <v>20</v>
-      </c>
-      <c r="AJ12" s="6">
-        <v>5</v>
-      </c>
-      <c r="AK12" s="6">
-        <v>2</v>
-      </c>
-      <c r="AL12" s="6">
-        <v>9</v>
-      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>64</v>
+      <c r="B13" s="6">
+        <v>7162575</v>
       </c>
       <c r="C13" s="6">
-        <v>7162575</v>
+        <v>7198417</v>
       </c>
       <c r="D13" s="6">
-        <v>7198417</v>
+        <v>6758498</v>
       </c>
       <c r="E13" s="6">
-        <v>6758498</v>
+        <v>7576085</v>
       </c>
       <c r="F13" s="6">
-        <v>7576085</v>
+        <v>8415656</v>
       </c>
       <c r="G13" s="6">
-        <v>8415656</v>
+        <v>9781505</v>
       </c>
       <c r="H13" s="6">
-        <v>9781505</v>
+        <v>8611364</v>
       </c>
       <c r="I13" s="6">
-        <v>8611364</v>
+        <v>8987560</v>
       </c>
       <c r="J13" s="6">
-        <v>8987560</v>
+        <v>8102496</v>
       </c>
       <c r="K13" s="6">
-        <v>8102496</v>
+        <v>7899020</v>
       </c>
       <c r="L13" s="6">
-        <v>7899020</v>
+        <v>6270511</v>
       </c>
       <c r="M13" s="6">
-        <v>6270511</v>
+        <v>4584274</v>
       </c>
       <c r="N13" s="6">
-        <v>4584274</v>
+        <v>5589192</v>
       </c>
       <c r="O13" s="6">
-        <v>5589192</v>
+        <v>6935069</v>
       </c>
       <c r="P13" s="6">
-        <v>6935069</v>
+        <v>5461911</v>
       </c>
       <c r="Q13" s="6">
-        <v>5461911</v>
+        <v>5044604</v>
       </c>
       <c r="R13" s="6">
-        <v>5044604</v>
+        <v>5169048</v>
       </c>
       <c r="S13" s="6">
-        <v>5169048</v>
+        <v>4563867</v>
       </c>
       <c r="T13" s="6">
-        <v>4563867</v>
+        <v>5442511</v>
       </c>
       <c r="U13" s="6">
-        <v>5442511</v>
+        <v>4634626</v>
       </c>
       <c r="V13" s="6">
-        <v>4634626</v>
+        <v>4809178</v>
       </c>
       <c r="W13" s="6">
-        <v>4809178</v>
+        <v>5648247</v>
       </c>
       <c r="X13" s="6">
-        <v>5648247</v>
+        <v>3721116</v>
       </c>
       <c r="Y13" s="6">
-        <v>3721116</v>
+        <v>3566344</v>
       </c>
       <c r="Z13" s="6">
-        <v>3566344</v>
+        <v>3553011</v>
       </c>
       <c r="AA13" s="6">
-        <v>3553011</v>
+        <v>3036348</v>
       </c>
       <c r="AB13" s="6">
-        <v>3036348</v>
+        <v>3312507</v>
       </c>
       <c r="AC13" s="6">
-        <v>3312507</v>
+        <v>3204155</v>
       </c>
       <c r="AD13" s="6">
-        <v>3204155</v>
+        <v>3179367</v>
       </c>
       <c r="AE13" s="6">
-        <v>3179367</v>
+        <v>3413268</v>
       </c>
       <c r="AF13" s="6">
-        <v>3413268</v>
+        <v>2931595</v>
       </c>
       <c r="AG13" s="6">
-        <v>2931595</v>
+        <v>2036823</v>
       </c>
       <c r="AH13" s="6">
-        <v>2036823</v>
+        <v>2547286</v>
       </c>
       <c r="AI13" s="6">
-        <v>2547286</v>
+        <v>4309831</v>
       </c>
       <c r="AJ13" s="6">
-        <v>4309831</v>
+        <v>4411585</v>
       </c>
       <c r="AK13" s="6">
-        <v>4411585</v>
-      </c>
-      <c r="AL13" s="6">
         <v>5280669</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>65</v>
+      <c r="B14" s="6">
+        <v>4800</v>
       </c>
       <c r="C14" s="6">
-        <v>4800</v>
+        <v>5178</v>
       </c>
       <c r="D14" s="6">
-        <v>5178</v>
+        <v>16563</v>
       </c>
       <c r="E14" s="6">
-        <v>16563</v>
+        <v>5194</v>
       </c>
       <c r="F14" s="6">
-        <v>5194</v>
+        <v>13599</v>
       </c>
       <c r="G14" s="6">
-        <v>13599</v>
+        <v>8630</v>
       </c>
       <c r="H14" s="6">
-        <v>8630</v>
+        <v>13761</v>
       </c>
       <c r="I14" s="6">
-        <v>13761</v>
+        <v>26485</v>
       </c>
       <c r="J14" s="6">
-        <v>26485</v>
+        <v>19341</v>
       </c>
       <c r="K14" s="6">
-        <v>19341</v>
+        <v>142794</v>
       </c>
       <c r="L14" s="6">
-        <v>142794</v>
+        <v>180270</v>
       </c>
       <c r="M14" s="6">
-        <v>180270</v>
+        <v>15576</v>
       </c>
       <c r="N14" s="6">
-        <v>15576</v>
+        <v>580750</v>
       </c>
       <c r="O14" s="6">
-        <v>580750</v>
+        <v>15420</v>
       </c>
       <c r="P14" s="6">
-        <v>15420</v>
+        <v>185364</v>
       </c>
       <c r="Q14" s="6">
-        <v>185364</v>
+        <v>13334</v>
       </c>
       <c r="R14" s="6">
-        <v>13334</v>
+        <v>91605</v>
       </c>
       <c r="S14" s="6">
-        <v>91605</v>
+        <v>16810</v>
       </c>
       <c r="T14" s="6">
-        <v>16810</v>
+        <v>53701</v>
       </c>
       <c r="U14" s="6">
-        <v>53701</v>
+        <v>17276</v>
       </c>
       <c r="V14" s="6">
-        <v>17276</v>
+        <v>44156</v>
       </c>
       <c r="W14" s="6">
-        <v>44156</v>
+        <v>28829</v>
       </c>
       <c r="X14" s="6">
-        <v>28829</v>
+        <v>17812</v>
       </c>
       <c r="Y14" s="6">
-        <v>17812</v>
+        <v>8779</v>
       </c>
       <c r="Z14" s="6">
-        <v>8779</v>
+        <v>118220</v>
       </c>
       <c r="AA14" s="6">
-        <v>118220</v>
+        <v>40346</v>
       </c>
       <c r="AB14" s="6">
-        <v>40346</v>
+        <v>23569</v>
       </c>
       <c r="AC14" s="6">
-        <v>23569</v>
+        <v>27990</v>
       </c>
       <c r="AD14" s="6">
-        <v>27990</v>
+        <v>21534</v>
       </c>
       <c r="AE14" s="6">
-        <v>21534</v>
+        <v>18352</v>
       </c>
       <c r="AF14" s="6">
-        <v>18352</v>
+        <v>33098</v>
       </c>
       <c r="AG14" s="6">
-        <v>33098</v>
+        <v>27683</v>
       </c>
       <c r="AH14" s="6">
-        <v>27683</v>
+        <v>44293</v>
       </c>
       <c r="AI14" s="6">
-        <v>44293</v>
+        <v>40116</v>
       </c>
       <c r="AJ14" s="6">
-        <v>40116</v>
+        <v>31051</v>
       </c>
       <c r="AK14" s="6">
-        <v>31051</v>
-      </c>
-      <c r="AL14" s="6">
         <v>66393</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="B15" s="6">
+        <v>3512922</v>
+      </c>
       <c r="C15" s="6">
-        <v>3512922</v>
+        <v>3791823</v>
       </c>
       <c r="D15" s="6">
-        <v>3791823</v>
+        <v>3619953</v>
       </c>
       <c r="E15" s="6">
-        <v>3619953</v>
+        <v>3825150</v>
       </c>
       <c r="F15" s="6">
-        <v>3825150</v>
+        <v>4422397</v>
       </c>
       <c r="G15" s="6">
-        <v>4422397</v>
+        <v>3727195</v>
       </c>
       <c r="H15" s="6">
-        <v>3727195</v>
+        <v>4037142</v>
       </c>
       <c r="I15" s="6">
-        <v>4037142</v>
+        <v>3534285</v>
       </c>
       <c r="J15" s="6">
-        <v>3534285</v>
+        <v>3536226</v>
       </c>
       <c r="K15" s="6">
-        <v>3536226</v>
+        <v>2626098</v>
       </c>
       <c r="L15" s="6">
-        <v>2626098</v>
+        <v>2783659</v>
       </c>
       <c r="M15" s="6">
-        <v>2783659</v>
+        <v>2584278</v>
       </c>
       <c r="N15" s="6">
-        <v>2584278</v>
+        <v>2700384</v>
       </c>
       <c r="O15" s="6">
-        <v>2700384</v>
+        <v>2770475</v>
       </c>
       <c r="P15" s="6">
-        <v>2770475</v>
+        <v>2304591</v>
       </c>
       <c r="Q15" s="6">
-        <v>2304591</v>
+        <v>2220637</v>
       </c>
       <c r="R15" s="6">
-        <v>2220637</v>
+        <v>2333843</v>
       </c>
       <c r="S15" s="6">
-        <v>2333843</v>
+        <v>2255497</v>
       </c>
       <c r="T15" s="6">
-        <v>2255497</v>
+        <v>2083203</v>
       </c>
       <c r="U15" s="6">
-        <v>2083203</v>
+        <v>2119185</v>
       </c>
       <c r="V15" s="6">
-        <v>2119185</v>
+        <v>2144537</v>
       </c>
       <c r="W15" s="6">
-        <v>2144537</v>
+        <v>2073900</v>
       </c>
       <c r="X15" s="6">
-        <v>2073900</v>
+        <v>1873065</v>
       </c>
       <c r="Y15" s="6">
-        <v>1873065</v>
+        <v>1691081</v>
       </c>
       <c r="Z15" s="6">
-        <v>1691081</v>
+        <v>1719271</v>
       </c>
       <c r="AA15" s="6">
-        <v>1719271</v>
+        <v>1580407</v>
       </c>
       <c r="AB15" s="6">
-        <v>1580407</v>
+        <v>1600278</v>
       </c>
       <c r="AC15" s="6">
-        <v>1600278</v>
+        <v>1664956</v>
       </c>
       <c r="AD15" s="6">
-        <v>1664956</v>
+        <v>1664051</v>
       </c>
       <c r="AE15" s="6">
-        <v>1664051</v>
+        <v>1479850</v>
       </c>
       <c r="AF15" s="6">
-        <v>1479850</v>
+        <v>1197834</v>
       </c>
       <c r="AG15" s="6">
-        <v>1197834</v>
+        <v>1195913</v>
       </c>
       <c r="AH15" s="6">
-        <v>1195913</v>
+        <v>1717044</v>
       </c>
       <c r="AI15" s="6">
-        <v>1717044</v>
+        <v>2340352</v>
       </c>
       <c r="AJ15" s="6">
-        <v>2340352</v>
+        <v>3223895</v>
       </c>
       <c r="AK15" s="6">
-        <v>3223895</v>
-      </c>
-      <c r="AL15" s="6">
         <v>3122465</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>67</v>
+      <c r="B16" s="6">
+        <v>22171</v>
       </c>
       <c r="C16" s="6">
-        <v>22171</v>
+        <v>22082</v>
       </c>
       <c r="D16" s="6">
-        <v>22082</v>
+        <v>23175</v>
       </c>
       <c r="E16" s="6">
-        <v>23175</v>
+        <v>29463</v>
       </c>
       <c r="F16" s="6">
-        <v>29463</v>
+        <v>19186</v>
       </c>
       <c r="G16" s="6">
-        <v>19186</v>
+        <v>21191</v>
       </c>
       <c r="H16" s="6">
-        <v>21191</v>
+        <v>23380</v>
       </c>
       <c r="I16" s="6">
-        <v>23380</v>
+        <v>14003</v>
       </c>
       <c r="J16" s="6">
-        <v>14003</v>
+        <v>34229</v>
       </c>
       <c r="K16" s="6">
-        <v>34229</v>
+        <v>33983</v>
       </c>
       <c r="L16" s="6">
-        <v>33983</v>
+        <v>15120</v>
       </c>
       <c r="M16" s="6">
-        <v>15120</v>
+        <v>18937</v>
       </c>
       <c r="N16" s="6">
-        <v>18937</v>
+        <v>17955</v>
       </c>
       <c r="O16" s="6">
-        <v>17955</v>
+        <v>22597</v>
       </c>
       <c r="P16" s="6">
-        <v>22597</v>
+        <v>16590</v>
       </c>
       <c r="Q16" s="6">
-        <v>16590</v>
+        <v>16275</v>
       </c>
       <c r="R16" s="6">
-        <v>16275</v>
+        <v>14791</v>
       </c>
       <c r="S16" s="6">
-        <v>14791</v>
+        <v>18072</v>
       </c>
       <c r="T16" s="6">
-        <v>18072</v>
+        <v>11766</v>
       </c>
       <c r="U16" s="6">
-        <v>11766</v>
+        <v>8559</v>
       </c>
       <c r="V16" s="6">
-        <v>8559</v>
+        <v>13261</v>
       </c>
       <c r="W16" s="6">
-        <v>13261</v>
+        <v>19202</v>
       </c>
       <c r="X16" s="6">
-        <v>19202</v>
+        <v>13449</v>
       </c>
       <c r="Y16" s="6">
-        <v>13449</v>
+        <v>24028</v>
       </c>
       <c r="Z16" s="6">
-        <v>24028</v>
+        <v>19963</v>
       </c>
       <c r="AA16" s="6">
-        <v>19963</v>
+        <v>17413</v>
       </c>
       <c r="AB16" s="6">
-        <v>17413</v>
+        <v>13109</v>
       </c>
       <c r="AC16" s="6">
-        <v>13109</v>
+        <v>9953</v>
       </c>
       <c r="AD16" s="6">
-        <v>9953</v>
+        <v>15036</v>
       </c>
       <c r="AE16" s="6">
-        <v>15036</v>
+        <v>15570</v>
       </c>
       <c r="AF16" s="6">
-        <v>15570</v>
+        <v>15047</v>
       </c>
       <c r="AG16" s="6">
-        <v>15047</v>
+        <v>11173</v>
       </c>
       <c r="AH16" s="6">
-        <v>11173</v>
+        <v>9717</v>
       </c>
       <c r="AI16" s="6">
-        <v>9717</v>
+        <v>13646</v>
       </c>
       <c r="AJ16" s="6">
-        <v>13646</v>
+        <v>10190</v>
       </c>
       <c r="AK16" s="6">
-        <v>10190</v>
-      </c>
-      <c r="AL16" s="6">
         <v>10052</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>68</v>
+      <c r="B17" s="6">
+        <v>14041</v>
       </c>
       <c r="C17" s="6">
-        <v>14041</v>
+        <v>11816</v>
       </c>
       <c r="D17" s="6">
-        <v>11816</v>
+        <v>14960</v>
       </c>
       <c r="E17" s="6">
-        <v>14960</v>
+        <v>10526</v>
       </c>
       <c r="F17" s="6">
-        <v>10526</v>
+        <v>9375</v>
       </c>
       <c r="G17" s="6">
-        <v>9375</v>
+        <v>12260</v>
       </c>
       <c r="H17" s="6">
-        <v>12260</v>
+        <v>10257</v>
       </c>
       <c r="I17" s="6">
-        <v>10257</v>
+        <v>9894</v>
       </c>
       <c r="J17" s="6">
-        <v>9894</v>
+        <v>8853</v>
       </c>
       <c r="K17" s="6">
-        <v>8853</v>
+        <v>9014</v>
       </c>
       <c r="L17" s="6">
-        <v>9014</v>
+        <v>5806</v>
       </c>
       <c r="M17" s="6">
-        <v>5806</v>
+        <v>9597</v>
       </c>
       <c r="N17" s="6">
-        <v>9597</v>
+        <v>12322</v>
       </c>
       <c r="O17" s="6">
-        <v>12322</v>
+        <v>10854</v>
       </c>
       <c r="P17" s="6">
-        <v>10854</v>
+        <v>10606</v>
       </c>
       <c r="Q17" s="6">
-        <v>10606</v>
+        <v>10449</v>
       </c>
       <c r="R17" s="6">
-        <v>10449</v>
+        <v>7726</v>
       </c>
       <c r="S17" s="6">
-        <v>7726</v>
+        <v>10071</v>
       </c>
       <c r="T17" s="6">
-        <v>10071</v>
+        <v>9464</v>
       </c>
       <c r="U17" s="6">
-        <v>9464</v>
+        <v>7443</v>
       </c>
       <c r="V17" s="6">
-        <v>7443</v>
+        <v>7528</v>
       </c>
       <c r="W17" s="6">
-        <v>7528</v>
+        <v>9501</v>
       </c>
       <c r="X17" s="6">
-        <v>9501</v>
+        <v>5708</v>
       </c>
       <c r="Y17" s="6">
-        <v>5708</v>
+        <v>13515</v>
       </c>
       <c r="Z17" s="6">
-        <v>13515</v>
+        <v>9156</v>
       </c>
       <c r="AA17" s="6">
-        <v>9156</v>
+        <v>11378</v>
       </c>
       <c r="AB17" s="6">
-        <v>11378</v>
+        <v>6692</v>
       </c>
       <c r="AC17" s="6">
-        <v>6692</v>
+        <v>4429</v>
       </c>
       <c r="AD17" s="6">
-        <v>4429</v>
+        <v>8318</v>
       </c>
       <c r="AE17" s="6">
-        <v>8318</v>
+        <v>5428</v>
       </c>
       <c r="AF17" s="6">
-        <v>5428</v>
+        <v>7333</v>
       </c>
       <c r="AG17" s="6">
-        <v>7333</v>
+        <v>7328</v>
       </c>
       <c r="AH17" s="6">
-        <v>7328</v>
+        <v>5358</v>
       </c>
       <c r="AI17" s="6">
-        <v>5358</v>
+        <v>5880</v>
       </c>
       <c r="AJ17" s="6">
-        <v>5880</v>
+        <v>7002</v>
       </c>
       <c r="AK17" s="6">
-        <v>7002</v>
-      </c>
-      <c r="AL17" s="6">
         <v>8614</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>69</v>
+      <c r="B18" s="6">
+        <v>1057387</v>
       </c>
       <c r="C18" s="6">
-        <v>1057387</v>
+        <v>1581812</v>
       </c>
       <c r="D18" s="6">
-        <v>1581812</v>
+        <v>1034897</v>
       </c>
       <c r="E18" s="6">
-        <v>1034897</v>
+        <v>1103949</v>
       </c>
       <c r="F18" s="6">
-        <v>1103949</v>
+        <v>1834624</v>
       </c>
       <c r="G18" s="6">
-        <v>1834624</v>
+        <v>2252872</v>
       </c>
       <c r="H18" s="6">
-        <v>2252872</v>
+        <v>1663124</v>
       </c>
       <c r="I18" s="6">
-        <v>1663124</v>
+        <v>1701450</v>
       </c>
       <c r="J18" s="6">
-        <v>1701450</v>
+        <v>1679715</v>
       </c>
       <c r="K18" s="6">
-        <v>1679715</v>
+        <v>2229964</v>
       </c>
       <c r="L18" s="6">
-        <v>2229964</v>
+        <v>1708584</v>
       </c>
       <c r="M18" s="6">
-        <v>1708584</v>
+        <v>1549650</v>
       </c>
       <c r="N18" s="6">
-        <v>1549650</v>
+        <v>1397984</v>
       </c>
       <c r="O18" s="6">
-        <v>1397984</v>
+        <v>1753216</v>
       </c>
       <c r="P18" s="6">
-        <v>1753216</v>
+        <v>1589025</v>
       </c>
       <c r="Q18" s="6">
-        <v>1589025</v>
+        <v>1224949</v>
       </c>
       <c r="R18" s="6">
-        <v>1224949</v>
+        <v>1196621</v>
       </c>
       <c r="S18" s="6">
-        <v>1196621</v>
+        <v>1764158</v>
       </c>
       <c r="T18" s="6">
-        <v>1764158</v>
+        <v>1772839</v>
       </c>
       <c r="U18" s="6">
-        <v>1772839</v>
+        <v>1999893</v>
       </c>
       <c r="V18" s="6">
-        <v>1999893</v>
+        <v>1587039</v>
       </c>
       <c r="W18" s="6">
-        <v>1587039</v>
+        <v>2125719</v>
       </c>
       <c r="X18" s="6">
-        <v>2125719</v>
+        <v>1282130</v>
       </c>
       <c r="Y18" s="6">
-        <v>1282130</v>
+        <v>1233114</v>
       </c>
       <c r="Z18" s="6">
-        <v>1233114</v>
+        <v>892726</v>
       </c>
       <c r="AA18" s="6">
-        <v>892726</v>
+        <v>1111800</v>
       </c>
       <c r="AB18" s="6">
-        <v>1111800</v>
+        <v>1154976</v>
       </c>
       <c r="AC18" s="6">
-        <v>1154976</v>
+        <v>800186</v>
       </c>
       <c r="AD18" s="6">
-        <v>800186</v>
+        <v>1256718</v>
       </c>
       <c r="AE18" s="6">
-        <v>1256718</v>
+        <v>871684</v>
       </c>
       <c r="AF18" s="6">
-        <v>871684</v>
+        <v>1289009</v>
       </c>
       <c r="AG18" s="6">
-        <v>1289009</v>
+        <v>1825666</v>
       </c>
       <c r="AH18" s="6">
-        <v>1825666</v>
+        <v>2198014</v>
       </c>
       <c r="AI18" s="6">
-        <v>2198014</v>
+        <v>1536973</v>
       </c>
       <c r="AJ18" s="6">
-        <v>1536973</v>
+        <v>1353797</v>
       </c>
       <c r="AK18" s="6">
-        <v>1353797</v>
-      </c>
-      <c r="AL18" s="6">
         <v>1212110</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>70</v>
+      <c r="B19" s="6">
+        <v>1126211</v>
       </c>
       <c r="C19" s="6">
-        <v>1126211</v>
+        <v>1175806</v>
       </c>
       <c r="D19" s="6">
-        <v>1175806</v>
+        <v>1198103</v>
       </c>
       <c r="E19" s="6">
-        <v>1198103</v>
+        <v>1715986</v>
       </c>
       <c r="F19" s="6">
-        <v>1715986</v>
+        <v>1529844</v>
       </c>
       <c r="G19" s="6">
-        <v>1529844</v>
+        <v>1210802</v>
       </c>
       <c r="H19" s="6">
-        <v>1210802</v>
+        <v>1299109</v>
       </c>
       <c r="I19" s="6">
-        <v>1299109</v>
+        <v>1222004</v>
       </c>
       <c r="J19" s="6">
-        <v>1222004</v>
+        <v>1228492</v>
       </c>
       <c r="K19" s="6">
-        <v>1228492</v>
+        <v>1445824</v>
       </c>
       <c r="L19" s="6">
-        <v>1445824</v>
+        <v>1037292</v>
       </c>
       <c r="M19" s="6">
-        <v>1037292</v>
+        <v>1270654</v>
       </c>
       <c r="N19" s="6">
-        <v>1270654</v>
+        <v>1232303</v>
       </c>
       <c r="O19" s="6">
-        <v>1232303</v>
+        <v>1201844</v>
       </c>
       <c r="P19" s="6">
-        <v>1201844</v>
+        <v>1364006</v>
       </c>
       <c r="Q19" s="6">
-        <v>1364006</v>
+        <v>1214531</v>
       </c>
       <c r="R19" s="6">
-        <v>1214531</v>
+        <v>1157347</v>
       </c>
       <c r="S19" s="6">
-        <v>1157347</v>
+        <v>1507607</v>
       </c>
       <c r="T19" s="6">
-        <v>1507607</v>
+        <v>1252790</v>
       </c>
       <c r="U19" s="6">
-        <v>1252790</v>
+        <v>1032086</v>
       </c>
       <c r="V19" s="6">
-        <v>1032086</v>
+        <v>1251755</v>
       </c>
       <c r="W19" s="6">
-        <v>1251755</v>
+        <v>1168627</v>
       </c>
       <c r="X19" s="6">
-        <v>1168627</v>
+        <v>840913</v>
       </c>
       <c r="Y19" s="6">
-        <v>840913</v>
+        <v>1361541</v>
       </c>
       <c r="Z19" s="6">
-        <v>1361541</v>
+        <v>758034</v>
       </c>
       <c r="AA19" s="6">
-        <v>758034</v>
+        <v>1009886</v>
       </c>
       <c r="AB19" s="6">
-        <v>1009886</v>
+        <v>1270461</v>
       </c>
       <c r="AC19" s="6">
-        <v>1270461</v>
+        <v>941252</v>
       </c>
       <c r="AD19" s="6">
-        <v>941252</v>
+        <v>866343</v>
       </c>
       <c r="AE19" s="6">
-        <v>866343</v>
+        <v>1239367</v>
       </c>
       <c r="AF19" s="6">
-        <v>1239367</v>
+        <v>1317844</v>
       </c>
       <c r="AG19" s="6">
-        <v>1317844</v>
+        <v>1135780</v>
       </c>
       <c r="AH19" s="6">
-        <v>1135780</v>
+        <v>1223058</v>
       </c>
       <c r="AI19" s="6">
-        <v>1223058</v>
+        <v>1108866</v>
       </c>
       <c r="AJ19" s="6">
-        <v>1108866</v>
+        <v>1364277</v>
       </c>
       <c r="AK19" s="6">
-        <v>1364277</v>
-      </c>
-      <c r="AL19" s="6">
         <v>1368824</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>71</v>
+      <c r="B20" s="6">
+        <v>1295231</v>
       </c>
       <c r="C20" s="6">
-        <v>1295231</v>
+        <v>1267455</v>
       </c>
       <c r="D20" s="6">
-        <v>1267455</v>
+        <v>1322401</v>
       </c>
       <c r="E20" s="6">
-        <v>1322401</v>
+        <v>1262170</v>
       </c>
       <c r="F20" s="6">
-        <v>1262170</v>
+        <v>1323647</v>
       </c>
       <c r="G20" s="6">
-        <v>1323647</v>
+        <v>1147883</v>
       </c>
       <c r="H20" s="6">
-        <v>1147883</v>
+        <v>1266136</v>
       </c>
       <c r="I20" s="6">
-        <v>1266136</v>
+        <v>1358518</v>
       </c>
       <c r="J20" s="6">
-        <v>1358518</v>
+        <v>1222679</v>
       </c>
       <c r="K20" s="6">
-        <v>1222679</v>
+        <v>1420524</v>
       </c>
       <c r="L20" s="6">
-        <v>1420524</v>
+        <v>1253441</v>
       </c>
       <c r="M20" s="6">
-        <v>1253441</v>
+        <v>1230946</v>
       </c>
       <c r="N20" s="6">
-        <v>1230946</v>
+        <v>1306862</v>
       </c>
       <c r="O20" s="6">
-        <v>1306862</v>
+        <v>1350099</v>
       </c>
       <c r="P20" s="6">
-        <v>1350099</v>
+        <v>1243439</v>
       </c>
       <c r="Q20" s="6">
-        <v>1243439</v>
+        <v>1222026</v>
       </c>
       <c r="R20" s="6">
-        <v>1222026</v>
+        <v>1266471</v>
       </c>
       <c r="S20" s="6">
-        <v>1266471</v>
+        <v>1268600</v>
       </c>
       <c r="T20" s="6">
-        <v>1268600</v>
+        <v>1231242</v>
       </c>
       <c r="U20" s="6">
-        <v>1231242</v>
+        <v>1199523</v>
       </c>
       <c r="V20" s="6">
-        <v>1199523</v>
+        <v>1219508</v>
       </c>
       <c r="W20" s="6">
-        <v>1219508</v>
+        <v>1442173</v>
       </c>
       <c r="X20" s="6">
-        <v>1442173</v>
+        <v>1128544</v>
       </c>
       <c r="Y20" s="6">
-        <v>1128544</v>
+        <v>1191017</v>
       </c>
       <c r="Z20" s="6">
-        <v>1191017</v>
+        <v>1186454</v>
       </c>
       <c r="AA20" s="6">
-        <v>1186454</v>
+        <v>1278797</v>
       </c>
       <c r="AB20" s="6">
-        <v>1278797</v>
+        <v>1323916</v>
       </c>
       <c r="AC20" s="6">
-        <v>1323916</v>
+        <v>1323732</v>
       </c>
       <c r="AD20" s="6">
-        <v>1323732</v>
+        <v>1200532</v>
       </c>
       <c r="AE20" s="6">
-        <v>1200532</v>
+        <v>1151220</v>
       </c>
       <c r="AF20" s="6">
-        <v>1151220</v>
+        <v>1158969</v>
       </c>
       <c r="AG20" s="6">
-        <v>1158969</v>
+        <v>991180</v>
       </c>
       <c r="AH20" s="6">
-        <v>991180</v>
+        <v>1117548</v>
       </c>
       <c r="AI20" s="6">
-        <v>1117548</v>
+        <v>1073765</v>
       </c>
       <c r="AJ20" s="6">
-        <v>1073765</v>
+        <v>1102408</v>
       </c>
       <c r="AK20" s="6">
-        <v>1102408</v>
-      </c>
-      <c r="AL20" s="6">
         <v>1182838</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>72</v>
+      <c r="B21" s="6">
+        <v>1298187</v>
       </c>
       <c r="C21" s="6">
-        <v>1298187</v>
+        <v>1249401</v>
       </c>
       <c r="D21" s="6">
-        <v>1249401</v>
+        <v>1336821</v>
       </c>
       <c r="E21" s="6">
-        <v>1336821</v>
+        <v>1362431</v>
       </c>
       <c r="F21" s="6">
-        <v>1362431</v>
+        <v>1478230</v>
       </c>
       <c r="G21" s="6">
-        <v>1478230</v>
+        <v>1443439</v>
       </c>
       <c r="H21" s="6">
-        <v>1443439</v>
+        <v>1696560</v>
       </c>
       <c r="I21" s="6">
-        <v>1696560</v>
+        <v>1503764</v>
       </c>
       <c r="J21" s="6">
-        <v>1503764</v>
+        <v>1574702</v>
       </c>
       <c r="K21" s="6">
-        <v>1574702</v>
+        <v>1798173</v>
       </c>
       <c r="L21" s="6">
-        <v>1798173</v>
+        <v>1573948</v>
       </c>
       <c r="M21" s="6">
-        <v>1573948</v>
+        <v>1546185</v>
       </c>
       <c r="N21" s="6">
-        <v>1546185</v>
+        <v>1718850</v>
       </c>
       <c r="O21" s="6">
-        <v>1718850</v>
+        <v>1694975</v>
       </c>
       <c r="P21" s="6">
-        <v>1694975</v>
+        <v>1552966</v>
       </c>
       <c r="Q21" s="6">
-        <v>1552966</v>
+        <v>1520796</v>
       </c>
       <c r="R21" s="6">
-        <v>1520796</v>
+        <v>1451789</v>
       </c>
       <c r="S21" s="6">
-        <v>1451789</v>
+        <v>1487653</v>
       </c>
       <c r="T21" s="6">
-        <v>1487653</v>
+        <v>1408013</v>
       </c>
       <c r="U21" s="6">
-        <v>1408013</v>
+        <v>1373395</v>
       </c>
       <c r="V21" s="6">
-        <v>1373395</v>
+        <v>1591088</v>
       </c>
       <c r="W21" s="6">
-        <v>1591088</v>
+        <v>1718936</v>
       </c>
       <c r="X21" s="6">
-        <v>1718936</v>
+        <v>1379636</v>
       </c>
       <c r="Y21" s="6">
-        <v>1379636</v>
+        <v>1264069</v>
       </c>
       <c r="Z21" s="6">
-        <v>1264069</v>
+        <v>1603327</v>
       </c>
       <c r="AA21" s="6">
-        <v>1603327</v>
+        <v>1315377</v>
       </c>
       <c r="AB21" s="6">
-        <v>1315377</v>
+        <v>1414969</v>
       </c>
       <c r="AC21" s="6">
-        <v>1414969</v>
+        <v>1220907</v>
       </c>
       <c r="AD21" s="6">
-        <v>1220907</v>
+        <v>1239409</v>
       </c>
       <c r="AE21" s="6">
-        <v>1239409</v>
+        <v>1244031</v>
       </c>
       <c r="AF21" s="6">
-        <v>1244031</v>
+        <v>1218354</v>
       </c>
       <c r="AG21" s="6">
-        <v>1218354</v>
+        <v>1129086</v>
       </c>
       <c r="AH21" s="6">
-        <v>1129086</v>
+        <v>1123641</v>
       </c>
       <c r="AI21" s="6">
-        <v>1123641</v>
+        <v>1246236</v>
       </c>
       <c r="AJ21" s="6">
-        <v>1246236</v>
+        <v>1126424</v>
       </c>
       <c r="AK21" s="6">
-        <v>1126424</v>
-      </c>
-      <c r="AL21" s="6">
         <v>1168916</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>73</v>
+      <c r="B22" s="6">
+        <v>137293</v>
       </c>
       <c r="C22" s="6">
-        <v>137293</v>
+        <v>128303</v>
       </c>
       <c r="D22" s="6">
-        <v>128303</v>
+        <v>112606</v>
       </c>
       <c r="E22" s="6">
-        <v>112606</v>
+        <v>123034</v>
       </c>
       <c r="F22" s="6">
-        <v>123034</v>
+        <v>125229</v>
       </c>
       <c r="G22" s="6">
-        <v>125229</v>
+        <v>164516</v>
       </c>
       <c r="H22" s="6">
-        <v>164516</v>
+        <v>217144</v>
       </c>
       <c r="I22" s="6">
-        <v>217144</v>
+        <v>185818</v>
       </c>
       <c r="J22" s="6">
-        <v>185818</v>
+        <v>136967</v>
       </c>
       <c r="K22" s="6">
-        <v>136967</v>
+        <v>138755</v>
       </c>
       <c r="L22" s="6">
-        <v>138755</v>
+        <v>104742</v>
       </c>
       <c r="M22" s="6">
-        <v>104742</v>
+        <v>122892</v>
       </c>
       <c r="N22" s="6">
-        <v>122892</v>
+        <v>143883</v>
       </c>
       <c r="O22" s="6">
-        <v>143883</v>
+        <v>118691</v>
       </c>
       <c r="P22" s="6">
-        <v>118691</v>
+        <v>118018</v>
       </c>
       <c r="Q22" s="6">
-        <v>118018</v>
+        <v>124612</v>
       </c>
       <c r="R22" s="6">
-        <v>124612</v>
+        <v>113961</v>
       </c>
       <c r="S22" s="6">
-        <v>113961</v>
+        <v>117517</v>
       </c>
       <c r="T22" s="6">
-        <v>117517</v>
+        <v>134249</v>
       </c>
       <c r="U22" s="6">
-        <v>134249</v>
+        <v>129677</v>
       </c>
       <c r="V22" s="6">
-        <v>129677</v>
+        <v>131098</v>
       </c>
       <c r="W22" s="6">
-        <v>131098</v>
+        <v>136928</v>
       </c>
       <c r="X22" s="6">
-        <v>136928</v>
+        <v>101725</v>
       </c>
       <c r="Y22" s="6">
-        <v>101725</v>
+        <v>115687</v>
       </c>
       <c r="Z22" s="6">
-        <v>115687</v>
+        <v>118692</v>
       </c>
       <c r="AA22" s="6">
-        <v>118692</v>
+        <v>111164</v>
       </c>
       <c r="AB22" s="6">
-        <v>111164</v>
+        <v>118088</v>
       </c>
       <c r="AC22" s="6">
-        <v>118088</v>
+        <v>110759</v>
       </c>
       <c r="AD22" s="6">
-        <v>110759</v>
+        <v>102844</v>
       </c>
       <c r="AE22" s="6">
-        <v>102844</v>
+        <v>101722</v>
       </c>
       <c r="AF22" s="6">
-        <v>101722</v>
+        <v>101869</v>
       </c>
       <c r="AG22" s="6">
-        <v>101869</v>
+        <v>93873</v>
       </c>
       <c r="AH22" s="6">
-        <v>93873</v>
+        <v>110655</v>
       </c>
       <c r="AI22" s="6">
-        <v>110655</v>
+        <v>118206</v>
       </c>
       <c r="AJ22" s="6">
-        <v>118206</v>
+        <v>130333</v>
       </c>
       <c r="AK22" s="6">
-        <v>130333</v>
-      </c>
-      <c r="AL22" s="6">
         <v>119302</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>74</v>
+      <c r="B23" s="6">
+        <v>99592</v>
       </c>
       <c r="C23" s="6">
-        <v>99592</v>
+        <v>99700</v>
       </c>
       <c r="D23" s="6">
-        <v>99700</v>
+        <v>96784</v>
       </c>
       <c r="E23" s="6">
-        <v>96784</v>
+        <v>111245</v>
       </c>
       <c r="F23" s="6">
-        <v>111245</v>
+        <v>114197</v>
       </c>
       <c r="G23" s="6">
-        <v>114197</v>
+        <v>110228</v>
       </c>
       <c r="H23" s="6">
-        <v>110228</v>
+        <v>110715</v>
       </c>
       <c r="I23" s="6">
-        <v>110715</v>
+        <v>100442</v>
       </c>
       <c r="J23" s="6">
-        <v>100442</v>
+        <v>94944</v>
       </c>
       <c r="K23" s="6">
-        <v>94944</v>
+        <v>108044</v>
       </c>
       <c r="L23" s="6">
-        <v>108044</v>
+        <v>81822</v>
       </c>
       <c r="M23" s="6">
-        <v>81822</v>
+        <v>85731</v>
       </c>
       <c r="N23" s="6">
-        <v>85731</v>
+        <v>105572</v>
       </c>
       <c r="O23" s="6">
-        <v>105572</v>
+        <v>88898</v>
       </c>
       <c r="P23" s="6">
-        <v>88898</v>
+        <v>87643</v>
       </c>
       <c r="Q23" s="6">
-        <v>87643</v>
+        <v>86166</v>
       </c>
       <c r="R23" s="6">
-        <v>86166</v>
+        <v>97175</v>
       </c>
       <c r="S23" s="6">
-        <v>97175</v>
+        <v>90216</v>
       </c>
       <c r="T23" s="6">
-        <v>90216</v>
+        <v>100886</v>
       </c>
       <c r="U23" s="6">
-        <v>100886</v>
+        <v>84755</v>
       </c>
       <c r="V23" s="6">
-        <v>84755</v>
+        <v>88150</v>
       </c>
       <c r="W23" s="6">
-        <v>88150</v>
+        <v>99804</v>
       </c>
       <c r="X23" s="6">
-        <v>99804</v>
+        <v>77064</v>
       </c>
       <c r="Y23" s="6">
-        <v>77064</v>
+        <v>69357</v>
       </c>
       <c r="Z23" s="6">
-        <v>69357</v>
+        <v>81295</v>
       </c>
       <c r="AA23" s="6">
-        <v>81295</v>
+        <v>77107</v>
       </c>
       <c r="AB23" s="6">
-        <v>77107</v>
+        <v>86034</v>
       </c>
       <c r="AC23" s="6">
-        <v>86034</v>
+        <v>76478</v>
       </c>
       <c r="AD23" s="6">
-        <v>76478</v>
+        <v>78211</v>
       </c>
       <c r="AE23" s="6">
-        <v>78211</v>
+        <v>82815</v>
       </c>
       <c r="AF23" s="6">
-        <v>82815</v>
+        <v>82980</v>
       </c>
       <c r="AG23" s="6">
-        <v>82980</v>
+        <v>85939</v>
       </c>
       <c r="AH23" s="6">
-        <v>85939</v>
+        <v>72432</v>
       </c>
       <c r="AI23" s="6">
-        <v>72432</v>
+        <v>90393</v>
       </c>
       <c r="AJ23" s="6">
-        <v>90393</v>
+        <v>83023</v>
       </c>
       <c r="AK23" s="6">
-        <v>83023</v>
-      </c>
-      <c r="AL23" s="6">
         <v>79469</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>75</v>
+      <c r="B24" s="6">
+        <v>212339</v>
       </c>
       <c r="C24" s="6">
-        <v>212339</v>
+        <v>218486</v>
       </c>
       <c r="D24" s="6">
-        <v>218486</v>
+        <v>156388</v>
       </c>
       <c r="E24" s="6">
-        <v>156388</v>
+        <v>210943</v>
       </c>
       <c r="F24" s="6">
-        <v>210943</v>
+        <v>208691</v>
       </c>
       <c r="G24" s="6">
-        <v>208691</v>
+        <v>220330</v>
       </c>
       <c r="H24" s="6">
-        <v>220330</v>
+        <v>203744</v>
       </c>
       <c r="I24" s="6">
-        <v>203744</v>
+        <v>173115</v>
       </c>
       <c r="J24" s="6">
-        <v>173115</v>
+        <v>165189</v>
       </c>
       <c r="K24" s="6">
-        <v>165189</v>
+        <v>182621</v>
       </c>
       <c r="L24" s="6">
-        <v>182621</v>
+        <v>139992</v>
       </c>
       <c r="M24" s="6">
-        <v>139992</v>
+        <v>141275</v>
       </c>
       <c r="N24" s="6">
-        <v>141275</v>
+        <v>153385</v>
       </c>
       <c r="O24" s="6">
-        <v>153385</v>
+        <v>166683</v>
       </c>
       <c r="P24" s="6">
-        <v>166683</v>
+        <v>157199</v>
       </c>
       <c r="Q24" s="6">
-        <v>157199</v>
+        <v>177168</v>
       </c>
       <c r="R24" s="6">
-        <v>177168</v>
+        <v>170166</v>
       </c>
       <c r="S24" s="6">
-        <v>170166</v>
+        <v>154409</v>
       </c>
       <c r="T24" s="6">
-        <v>154409</v>
+        <v>180093</v>
       </c>
       <c r="U24" s="6">
-        <v>180093</v>
+        <v>175921</v>
       </c>
       <c r="V24" s="6">
-        <v>175921</v>
+        <v>171475</v>
       </c>
       <c r="W24" s="6">
-        <v>171475</v>
+        <v>176008</v>
       </c>
       <c r="X24" s="6">
-        <v>176008</v>
+        <v>135432</v>
       </c>
       <c r="Y24" s="6">
-        <v>135432</v>
+        <v>154526</v>
       </c>
       <c r="Z24" s="6">
-        <v>154526</v>
+        <v>163824</v>
       </c>
       <c r="AA24" s="6">
-        <v>163824</v>
+        <v>153478</v>
       </c>
       <c r="AB24" s="6">
-        <v>153478</v>
+        <v>165153</v>
       </c>
       <c r="AC24" s="6">
-        <v>165153</v>
+        <v>172924</v>
       </c>
       <c r="AD24" s="6">
-        <v>172924</v>
+        <v>146828</v>
       </c>
       <c r="AE24" s="6">
-        <v>146828</v>
+        <v>154734</v>
       </c>
       <c r="AF24" s="6">
-        <v>154734</v>
+        <v>165888</v>
       </c>
       <c r="AG24" s="6">
-        <v>165888</v>
+        <v>138832</v>
       </c>
       <c r="AH24" s="6">
-        <v>138832</v>
+        <v>155325</v>
       </c>
       <c r="AI24" s="6">
-        <v>155325</v>
+        <v>169867</v>
       </c>
       <c r="AJ24" s="6">
-        <v>169867</v>
+        <v>152626</v>
       </c>
       <c r="AK24" s="6">
-        <v>152626</v>
-      </c>
-      <c r="AL24" s="6">
         <v>149939</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>76</v>
+      <c r="B25" s="6">
+        <v>82832</v>
       </c>
       <c r="C25" s="6">
-        <v>82832</v>
+        <v>81888</v>
       </c>
       <c r="D25" s="6">
-        <v>81888</v>
+        <v>82522</v>
       </c>
       <c r="E25" s="6">
-        <v>82522</v>
+        <v>88101</v>
       </c>
       <c r="F25" s="6">
-        <v>88101</v>
+        <v>80633</v>
       </c>
       <c r="G25" s="6">
-        <v>80633</v>
+        <v>93955</v>
       </c>
       <c r="H25" s="6">
-        <v>93955</v>
+        <v>114093</v>
       </c>
       <c r="I25" s="6">
-        <v>114093</v>
+        <v>87983</v>
       </c>
       <c r="J25" s="6">
-        <v>87983</v>
+        <v>124512</v>
       </c>
       <c r="K25" s="6">
-        <v>124512</v>
+        <v>119283</v>
       </c>
       <c r="L25" s="6">
-        <v>119283</v>
+        <v>112157</v>
       </c>
       <c r="M25" s="6">
-        <v>112157</v>
+        <v>128568</v>
       </c>
       <c r="N25" s="6">
-        <v>128568</v>
+        <v>105405</v>
       </c>
       <c r="O25" s="6">
-        <v>105405</v>
+        <v>104932</v>
       </c>
       <c r="P25" s="6">
-        <v>104932</v>
+        <v>94431</v>
       </c>
       <c r="Q25" s="6">
-        <v>94431</v>
+        <v>103875</v>
       </c>
       <c r="R25" s="6">
-        <v>103875</v>
+        <v>104023</v>
       </c>
       <c r="S25" s="6">
-        <v>104023</v>
+        <v>94725</v>
       </c>
       <c r="T25" s="6">
-        <v>94725</v>
+        <v>106268</v>
       </c>
       <c r="U25" s="6">
-        <v>106268</v>
+        <v>97187</v>
       </c>
       <c r="V25" s="6">
-        <v>97187</v>
+        <v>89347</v>
       </c>
       <c r="W25" s="6">
-        <v>89347</v>
+        <v>90247</v>
       </c>
       <c r="X25" s="6">
-        <v>90247</v>
+        <v>74401</v>
       </c>
       <c r="Y25" s="6">
-        <v>74401</v>
+        <v>77994</v>
       </c>
       <c r="Z25" s="6">
-        <v>77994</v>
+        <v>85503</v>
       </c>
       <c r="AA25" s="6">
-        <v>85503</v>
+        <v>86036</v>
       </c>
       <c r="AB25" s="6">
-        <v>86036</v>
+        <v>88393</v>
       </c>
       <c r="AC25" s="6">
-        <v>88393</v>
+        <v>104223</v>
       </c>
       <c r="AD25" s="6">
-        <v>104223</v>
+        <v>88110</v>
       </c>
       <c r="AE25" s="6">
-        <v>88110</v>
+        <v>101185</v>
       </c>
       <c r="AF25" s="6">
-        <v>101185</v>
+        <v>79852</v>
       </c>
       <c r="AG25" s="6">
-        <v>79852</v>
+        <v>92962</v>
       </c>
       <c r="AH25" s="6">
-        <v>92962</v>
+        <v>95642</v>
       </c>
       <c r="AI25" s="6">
-        <v>95642</v>
+        <v>83355</v>
       </c>
       <c r="AJ25" s="6">
-        <v>83355</v>
+        <v>74353</v>
       </c>
       <c r="AK25" s="6">
-        <v>74353</v>
-      </c>
-      <c r="AL25" s="6">
         <v>76844</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>77</v>
+      <c r="B26" s="6">
+        <v>218261</v>
       </c>
       <c r="C26" s="6">
-        <v>218261</v>
+        <v>193525</v>
       </c>
       <c r="D26" s="6">
-        <v>193525</v>
+        <v>347533</v>
       </c>
       <c r="E26" s="6">
-        <v>347533</v>
+        <v>249616</v>
       </c>
       <c r="F26" s="6">
-        <v>249616</v>
+        <v>311702</v>
       </c>
       <c r="G26" s="6">
-        <v>311702</v>
+        <v>415830</v>
       </c>
       <c r="H26" s="6">
-        <v>415830</v>
+        <v>360280</v>
       </c>
       <c r="I26" s="6">
-        <v>360280</v>
+        <v>358065</v>
       </c>
       <c r="J26" s="6">
-        <v>358065</v>
+        <v>383709</v>
       </c>
       <c r="K26" s="6">
-        <v>383709</v>
+        <v>337326</v>
       </c>
       <c r="L26" s="6">
-        <v>337326</v>
+        <v>336015</v>
       </c>
       <c r="M26" s="6">
-        <v>336015</v>
+        <v>343629</v>
       </c>
       <c r="N26" s="6">
-        <v>343629</v>
+        <v>275328</v>
       </c>
       <c r="O26" s="6">
-        <v>275328</v>
+        <v>247718</v>
       </c>
       <c r="P26" s="6">
-        <v>247718</v>
+        <v>244993</v>
       </c>
       <c r="Q26" s="6">
-        <v>244993</v>
+        <v>202425</v>
       </c>
       <c r="R26" s="6">
-        <v>202425</v>
+        <v>241849</v>
       </c>
       <c r="S26" s="6">
-        <v>241849</v>
+        <v>248997</v>
       </c>
       <c r="T26" s="6">
-        <v>248997</v>
+        <v>284627</v>
       </c>
       <c r="U26" s="6">
-        <v>284627</v>
+        <v>237020</v>
       </c>
       <c r="V26" s="6">
-        <v>237020</v>
+        <v>197297</v>
       </c>
       <c r="W26" s="6">
-        <v>197297</v>
+        <v>241564</v>
       </c>
       <c r="X26" s="6">
-        <v>241564</v>
+        <v>338987</v>
       </c>
       <c r="Y26" s="6">
-        <v>338987</v>
+        <v>238711</v>
       </c>
       <c r="Z26" s="6">
-        <v>238711</v>
+        <v>202572</v>
       </c>
       <c r="AA26" s="6">
-        <v>202572</v>
+        <v>248535</v>
       </c>
       <c r="AB26" s="6">
-        <v>248535</v>
+        <v>183117</v>
       </c>
       <c r="AC26" s="6">
-        <v>183117</v>
+        <v>204521</v>
       </c>
       <c r="AD26" s="6">
-        <v>204521</v>
+        <v>158655</v>
       </c>
       <c r="AE26" s="6">
-        <v>158655</v>
+        <v>134465</v>
       </c>
       <c r="AF26" s="6">
-        <v>134465</v>
+        <v>182742</v>
       </c>
       <c r="AG26" s="6">
-        <v>182742</v>
+        <v>81089</v>
       </c>
       <c r="AH26" s="6">
-        <v>81089</v>
+        <v>74593</v>
       </c>
       <c r="AI26" s="6">
-        <v>74593</v>
+        <v>93993</v>
       </c>
       <c r="AJ26" s="6">
-        <v>93993</v>
+        <v>185806</v>
       </c>
       <c r="AK26" s="6">
-        <v>185806</v>
-      </c>
-      <c r="AL26" s="6">
         <v>232007</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>78</v>
+      <c r="B27" s="6">
+        <v>324443</v>
       </c>
       <c r="C27" s="6">
-        <v>324443</v>
+        <v>322781</v>
       </c>
       <c r="D27" s="6">
-        <v>322781</v>
+        <v>346844</v>
       </c>
       <c r="E27" s="6">
-        <v>346844</v>
+        <v>314710</v>
       </c>
       <c r="F27" s="6">
-        <v>314710</v>
+        <v>315710</v>
       </c>
       <c r="G27" s="6">
-        <v>315710</v>
+        <v>332751</v>
       </c>
       <c r="H27" s="6">
-        <v>332751</v>
+        <v>313697</v>
       </c>
       <c r="I27" s="6">
-        <v>313697</v>
+        <v>274256</v>
       </c>
       <c r="J27" s="6">
-        <v>274256</v>
+        <v>302277</v>
       </c>
       <c r="K27" s="6">
-        <v>302277</v>
+        <v>352968</v>
       </c>
       <c r="L27" s="6">
-        <v>352968</v>
+        <v>231648</v>
       </c>
       <c r="M27" s="6">
-        <v>231648</v>
+        <v>327108</v>
       </c>
       <c r="N27" s="6">
-        <v>327108</v>
+        <v>273545</v>
       </c>
       <c r="O27" s="6">
-        <v>273545</v>
+        <v>249417</v>
       </c>
       <c r="P27" s="6">
-        <v>249417</v>
+        <v>244697</v>
       </c>
       <c r="Q27" s="6">
-        <v>244697</v>
+        <v>226597</v>
       </c>
       <c r="R27" s="6">
-        <v>226597</v>
+        <v>230357</v>
       </c>
       <c r="S27" s="6">
-        <v>230357</v>
+        <v>241281</v>
       </c>
       <c r="T27" s="6">
-        <v>241281</v>
+        <v>248823</v>
       </c>
       <c r="U27" s="6">
-        <v>248823</v>
+        <v>233517</v>
       </c>
       <c r="V27" s="6">
-        <v>233517</v>
+        <v>282344</v>
       </c>
       <c r="W27" s="6">
-        <v>282344</v>
+        <v>261140</v>
       </c>
       <c r="X27" s="6">
-        <v>261140</v>
+        <v>207018</v>
       </c>
       <c r="Y27" s="6">
-        <v>207018</v>
+        <v>179773</v>
       </c>
       <c r="Z27" s="6">
-        <v>179773</v>
+        <v>202906</v>
       </c>
       <c r="AA27" s="6">
-        <v>202906</v>
+        <v>184731</v>
       </c>
       <c r="AB27" s="6">
-        <v>184731</v>
+        <v>196254</v>
       </c>
       <c r="AC27" s="6">
-        <v>196254</v>
+        <v>199113</v>
       </c>
       <c r="AD27" s="6">
-        <v>199113</v>
+        <v>184193</v>
       </c>
       <c r="AE27" s="6">
-        <v>184193</v>
+        <v>207190</v>
       </c>
       <c r="AF27" s="6">
-        <v>207190</v>
+        <v>205162</v>
       </c>
       <c r="AG27" s="6">
-        <v>205162</v>
+        <v>171918</v>
       </c>
       <c r="AH27" s="6">
-        <v>171918</v>
+        <v>224432</v>
       </c>
       <c r="AI27" s="6">
-        <v>224432</v>
+        <v>249724</v>
       </c>
       <c r="AJ27" s="6">
-        <v>249724</v>
+        <v>240592</v>
       </c>
       <c r="AK27" s="6">
-        <v>240592</v>
-      </c>
-      <c r="AL27" s="6">
         <v>230496</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>79</v>
+      <c r="B28" s="6">
+        <v>293364</v>
       </c>
       <c r="C28" s="6">
-        <v>293364</v>
+        <v>305165</v>
       </c>
       <c r="D28" s="6">
-        <v>305165</v>
+        <v>380161</v>
       </c>
       <c r="E28" s="6">
-        <v>380161</v>
+        <v>350704</v>
       </c>
       <c r="F28" s="6">
-        <v>350704</v>
+        <v>336599</v>
       </c>
       <c r="G28" s="6">
-        <v>336599</v>
+        <v>637120</v>
       </c>
       <c r="H28" s="6">
-        <v>637120</v>
+        <v>302766</v>
       </c>
       <c r="I28" s="6">
-        <v>302766</v>
+        <v>461793</v>
       </c>
       <c r="J28" s="6">
-        <v>461793</v>
+        <v>422260</v>
       </c>
       <c r="K28" s="6">
-        <v>422260</v>
+        <v>431562</v>
       </c>
       <c r="L28" s="6">
-        <v>431562</v>
+        <v>398461</v>
       </c>
       <c r="M28" s="6">
-        <v>398461</v>
+        <v>484132</v>
       </c>
       <c r="N28" s="6">
-        <v>484132</v>
+        <v>416674</v>
       </c>
       <c r="O28" s="6">
-        <v>416674</v>
+        <v>468992</v>
       </c>
       <c r="P28" s="6">
-        <v>468992</v>
+        <v>707328</v>
       </c>
       <c r="Q28" s="6">
-        <v>707328</v>
+        <v>735851</v>
       </c>
       <c r="R28" s="6">
-        <v>735851</v>
+        <v>418056</v>
       </c>
       <c r="S28" s="6">
-        <v>418056</v>
+        <v>461703</v>
       </c>
       <c r="T28" s="6">
-        <v>461703</v>
+        <v>580505</v>
       </c>
       <c r="U28" s="6">
-        <v>580505</v>
+        <v>351600</v>
       </c>
       <c r="V28" s="6">
-        <v>351600</v>
+        <v>441608</v>
       </c>
       <c r="W28" s="6">
-        <v>441608</v>
+        <v>413256</v>
       </c>
       <c r="X28" s="6">
-        <v>413256</v>
+        <v>316766</v>
       </c>
       <c r="Y28" s="6">
-        <v>316766</v>
+        <v>199161</v>
       </c>
       <c r="Z28" s="6">
-        <v>199161</v>
+        <v>276619</v>
       </c>
       <c r="AA28" s="6">
-        <v>276619</v>
+        <v>235194</v>
       </c>
       <c r="AB28" s="6">
-        <v>235194</v>
+        <v>227295</v>
       </c>
       <c r="AC28" s="6">
-        <v>227295</v>
+        <v>183921</v>
       </c>
       <c r="AD28" s="6">
-        <v>183921</v>
+        <v>176644</v>
       </c>
       <c r="AE28" s="6">
-        <v>176644</v>
+        <v>169591</v>
       </c>
       <c r="AF28" s="6">
-        <v>169591</v>
+        <v>152652</v>
       </c>
       <c r="AG28" s="6">
-        <v>152652</v>
+        <v>252006</v>
       </c>
       <c r="AH28" s="6">
-        <v>252006</v>
+        <v>245400</v>
       </c>
       <c r="AI28" s="6">
-        <v>245400</v>
+        <v>214734</v>
       </c>
       <c r="AJ28" s="6">
-        <v>214734</v>
+        <v>246544</v>
       </c>
       <c r="AK28" s="6">
-        <v>246544</v>
-      </c>
-      <c r="AL28" s="6">
         <v>167370</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>80</v>
+      <c r="B29" s="6">
+        <v>342642</v>
       </c>
       <c r="C29" s="6">
-        <v>342642</v>
+        <v>354801</v>
       </c>
       <c r="D29" s="6">
-        <v>354801</v>
+        <v>348230</v>
       </c>
       <c r="E29" s="6">
-        <v>348230</v>
+        <v>412263</v>
       </c>
       <c r="F29" s="6">
-        <v>412263</v>
+        <v>489395</v>
       </c>
       <c r="G29" s="6">
-        <v>489395</v>
+        <v>689111</v>
       </c>
       <c r="H29" s="6">
-        <v>689111</v>
+        <v>458320</v>
       </c>
       <c r="I29" s="6">
-        <v>458320</v>
+        <v>482023</v>
       </c>
       <c r="J29" s="6">
-        <v>482023</v>
+        <v>415121</v>
       </c>
       <c r="K29" s="6">
-        <v>415121</v>
+        <v>462821</v>
       </c>
       <c r="L29" s="6">
-        <v>462821</v>
+        <v>354597</v>
       </c>
       <c r="M29" s="6">
-        <v>354597</v>
+        <v>441033</v>
       </c>
       <c r="N29" s="6">
-        <v>441033</v>
+        <v>617526</v>
       </c>
       <c r="O29" s="6">
-        <v>617526</v>
+        <v>423150</v>
       </c>
       <c r="P29" s="6">
-        <v>423150</v>
+        <v>393453</v>
       </c>
       <c r="Q29" s="6">
-        <v>393453</v>
+        <v>386835</v>
       </c>
       <c r="R29" s="6">
-        <v>386835</v>
+        <v>477237</v>
       </c>
       <c r="S29" s="6">
-        <v>477237</v>
+        <v>431246</v>
       </c>
       <c r="T29" s="6">
-        <v>431246</v>
+        <v>370446</v>
       </c>
       <c r="U29" s="6">
-        <v>370446</v>
+        <v>329578</v>
       </c>
       <c r="V29" s="6">
-        <v>329578</v>
+        <v>381593</v>
       </c>
       <c r="W29" s="6">
-        <v>381593</v>
+        <v>364125</v>
       </c>
       <c r="X29" s="6">
-        <v>364125</v>
+        <v>291202</v>
       </c>
       <c r="Y29" s="6">
-        <v>291202</v>
+        <v>305210</v>
       </c>
       <c r="Z29" s="6">
-        <v>305210</v>
+        <v>335105</v>
       </c>
       <c r="AA29" s="6">
-        <v>335105</v>
+        <v>316954</v>
       </c>
       <c r="AB29" s="6">
-        <v>316954</v>
+        <v>318721</v>
       </c>
       <c r="AC29" s="6">
-        <v>318721</v>
+        <v>304057</v>
       </c>
       <c r="AD29" s="6">
-        <v>304057</v>
+        <v>292107</v>
       </c>
       <c r="AE29" s="6">
-        <v>292107</v>
+        <v>302986</v>
       </c>
       <c r="AF29" s="6">
-        <v>302986</v>
+        <v>288606</v>
       </c>
       <c r="AG29" s="6">
-        <v>288606</v>
+        <v>256454</v>
       </c>
       <c r="AH29" s="6">
-        <v>256454</v>
+        <v>265511</v>
       </c>
       <c r="AI29" s="6">
-        <v>265511</v>
+        <v>346594</v>
       </c>
       <c r="AJ29" s="6">
-        <v>346594</v>
+        <v>330337</v>
       </c>
       <c r="AK29" s="6">
-        <v>330337</v>
-      </c>
-      <c r="AL29" s="6">
         <v>330349</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>81</v>
+      <c r="B30" s="6">
+        <v>2026811</v>
       </c>
       <c r="C30" s="6">
-        <v>2026811</v>
+        <v>2211501</v>
       </c>
       <c r="D30" s="6">
-        <v>2211501</v>
+        <v>2692467</v>
       </c>
       <c r="E30" s="6">
-        <v>2692467</v>
+        <v>2261360</v>
       </c>
       <c r="F30" s="6">
-        <v>2261360</v>
+        <v>2129076</v>
       </c>
       <c r="G30" s="6">
-        <v>2129076</v>
+        <v>2207421</v>
       </c>
       <c r="H30" s="6">
-        <v>2207421</v>
+        <v>2148082</v>
       </c>
       <c r="I30" s="6">
-        <v>2148082</v>
+        <v>1744767</v>
       </c>
       <c r="J30" s="6">
-        <v>1744767</v>
+        <v>2129610</v>
       </c>
       <c r="K30" s="6">
-        <v>2129610</v>
+        <v>2247723</v>
       </c>
       <c r="L30" s="6">
-        <v>2247723</v>
+        <v>1835920</v>
       </c>
       <c r="M30" s="6">
-        <v>1835920</v>
+        <v>2189280</v>
       </c>
       <c r="N30" s="6">
-        <v>2189280</v>
+        <v>2474742</v>
       </c>
       <c r="O30" s="6">
-        <v>2474742</v>
+        <v>2258745</v>
       </c>
       <c r="P30" s="6">
-        <v>2258745</v>
+        <v>2434137</v>
       </c>
       <c r="Q30" s="6">
-        <v>2434137</v>
+        <v>2302293</v>
       </c>
       <c r="R30" s="6">
-        <v>2302293</v>
+        <v>2327290</v>
       </c>
       <c r="S30" s="6">
-        <v>2327290</v>
+        <v>2478823</v>
       </c>
       <c r="T30" s="6">
-        <v>2478823</v>
+        <v>2437967</v>
       </c>
       <c r="U30" s="6">
-        <v>2437967</v>
+        <v>2168138</v>
       </c>
       <c r="V30" s="6">
-        <v>2168138</v>
+        <v>2359214</v>
       </c>
       <c r="W30" s="6">
-        <v>2359214</v>
+        <v>2244543</v>
       </c>
       <c r="X30" s="6">
-        <v>2244543</v>
+        <v>1908628</v>
       </c>
       <c r="Y30" s="6">
-        <v>1908628</v>
+        <v>2147923</v>
       </c>
       <c r="Z30" s="6">
-        <v>2147923</v>
+        <v>2126178</v>
       </c>
       <c r="AA30" s="6">
-        <v>2126178</v>
+        <v>2091033</v>
       </c>
       <c r="AB30" s="6">
-        <v>2091033</v>
+        <v>2174479</v>
       </c>
       <c r="AC30" s="6">
-        <v>2174479</v>
+        <v>2274588</v>
       </c>
       <c r="AD30" s="6">
-        <v>2274588</v>
+        <v>2119751</v>
       </c>
       <c r="AE30" s="6">
-        <v>2119751</v>
+        <v>2134738</v>
       </c>
       <c r="AF30" s="6">
-        <v>2134738</v>
+        <v>1952238</v>
       </c>
       <c r="AG30" s="6">
-        <v>1952238</v>
+        <v>1844862</v>
       </c>
       <c r="AH30" s="6">
-        <v>1844862</v>
+        <v>1661250</v>
       </c>
       <c r="AI30" s="6">
-        <v>1661250</v>
+        <v>1456371</v>
       </c>
       <c r="AJ30" s="6">
-        <v>1456371</v>
+        <v>1619270</v>
       </c>
       <c r="AK30" s="6">
-        <v>1619270</v>
-      </c>
-      <c r="AL30" s="6">
         <v>1608474</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>82</v>
+      <c r="B31" s="6">
+        <v>2060807</v>
       </c>
       <c r="C31" s="6">
-        <v>2060807</v>
+        <v>2199981</v>
       </c>
       <c r="D31" s="6">
-        <v>2199981</v>
+        <v>2620931</v>
       </c>
       <c r="E31" s="6">
-        <v>2620931</v>
+        <v>2191529</v>
       </c>
       <c r="F31" s="6">
-        <v>2191529</v>
+        <v>1916761</v>
       </c>
       <c r="G31" s="6">
-        <v>1916761</v>
+        <v>1752006</v>
       </c>
       <c r="H31" s="6">
-        <v>1752006</v>
+        <v>2055025</v>
       </c>
       <c r="I31" s="6">
-        <v>2055025</v>
+        <v>1798491</v>
       </c>
       <c r="J31" s="6">
-        <v>1798491</v>
+        <v>1859419</v>
       </c>
       <c r="K31" s="6">
-        <v>1859419</v>
+        <v>2090854</v>
       </c>
       <c r="L31" s="6">
-        <v>2090854</v>
+        <v>1473815</v>
       </c>
       <c r="M31" s="6">
-        <v>1473815</v>
+        <v>1780584</v>
       </c>
       <c r="N31" s="6">
-        <v>1780584</v>
+        <v>2268122</v>
       </c>
       <c r="O31" s="6">
-        <v>2268122</v>
+        <v>2249177</v>
       </c>
       <c r="P31" s="6">
-        <v>2249177</v>
+        <v>2036960</v>
       </c>
       <c r="Q31" s="6">
-        <v>2036960</v>
+        <v>1786029</v>
       </c>
       <c r="R31" s="6">
-        <v>1786029</v>
+        <v>1662216</v>
       </c>
       <c r="S31" s="6">
-        <v>1662216</v>
+        <v>1701685</v>
       </c>
       <c r="T31" s="6">
-        <v>1701685</v>
+        <v>1705148</v>
       </c>
       <c r="U31" s="6">
-        <v>1705148</v>
+        <v>1882726</v>
       </c>
       <c r="V31" s="6">
-        <v>1882726</v>
+        <v>2235806</v>
       </c>
       <c r="W31" s="6">
-        <v>2235806</v>
+        <v>2199707</v>
       </c>
       <c r="X31" s="6">
-        <v>2199707</v>
+        <v>1909236</v>
       </c>
       <c r="Y31" s="6">
-        <v>1909236</v>
+        <v>2148413</v>
       </c>
       <c r="Z31" s="6">
-        <v>2148413</v>
+        <v>2199481</v>
       </c>
       <c r="AA31" s="6">
-        <v>2199481</v>
+        <v>2043567</v>
       </c>
       <c r="AB31" s="6">
-        <v>2043567</v>
+        <v>1674603</v>
       </c>
       <c r="AC31" s="6">
-        <v>1674603</v>
+        <v>1672202</v>
       </c>
       <c r="AD31" s="6">
-        <v>1672202</v>
+        <v>1862302</v>
       </c>
       <c r="AE31" s="6">
-        <v>1862302</v>
+        <v>1961049</v>
       </c>
       <c r="AF31" s="6">
-        <v>1961049</v>
+        <v>1855944</v>
       </c>
       <c r="AG31" s="6">
-        <v>1855944</v>
+        <v>1501322</v>
       </c>
       <c r="AH31" s="6">
-        <v>1501322</v>
+        <v>1444027</v>
       </c>
       <c r="AI31" s="6">
-        <v>1444027</v>
+        <v>1518014</v>
       </c>
       <c r="AJ31" s="6">
-        <v>1518014</v>
+        <v>1441953</v>
       </c>
       <c r="AK31" s="6">
-        <v>1441953</v>
-      </c>
-      <c r="AL31" s="6">
         <v>1677438</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>83</v>
+      <c r="B32" s="6">
+        <v>17118256</v>
       </c>
       <c r="C32" s="6">
-        <v>17118256</v>
+        <v>14767481</v>
       </c>
       <c r="D32" s="6">
-        <v>14767481</v>
+        <v>16296229</v>
       </c>
       <c r="E32" s="6">
-        <v>16296229</v>
+        <v>19823480</v>
       </c>
       <c r="F32" s="6">
-        <v>19823480</v>
+        <v>19766861</v>
       </c>
       <c r="G32" s="6">
-        <v>19766861</v>
+        <v>18282442</v>
       </c>
       <c r="H32" s="6">
-        <v>18282442</v>
+        <v>20380111</v>
       </c>
       <c r="I32" s="6">
-        <v>20380111</v>
+        <v>18216528</v>
       </c>
       <c r="J32" s="6">
-        <v>18216528</v>
+        <v>19030781</v>
       </c>
       <c r="K32" s="6">
-        <v>19030781</v>
+        <v>20132688</v>
       </c>
       <c r="L32" s="6">
-        <v>20132688</v>
+        <v>16886819</v>
       </c>
       <c r="M32" s="6">
-        <v>16886819</v>
+        <v>17806938</v>
       </c>
       <c r="N32" s="6">
-        <v>17806938</v>
+        <v>18800655</v>
       </c>
       <c r="O32" s="6">
-        <v>18800655</v>
+        <v>18105032</v>
       </c>
       <c r="P32" s="6">
-        <v>18105032</v>
+        <v>16992752</v>
       </c>
       <c r="Q32" s="6">
-        <v>16992752</v>
+        <v>17201125</v>
       </c>
       <c r="R32" s="6">
-        <v>17201125</v>
+        <v>18221207</v>
       </c>
       <c r="S32" s="6">
-        <v>18221207</v>
+        <v>15881503</v>
       </c>
       <c r="T32" s="6">
-        <v>15881503</v>
+        <v>14987493</v>
       </c>
       <c r="U32" s="6">
-        <v>14987493</v>
+        <v>15092097</v>
       </c>
       <c r="V32" s="6">
-        <v>15092097</v>
+        <v>14972634</v>
       </c>
       <c r="W32" s="6">
-        <v>14972634</v>
+        <v>16273151</v>
       </c>
       <c r="X32" s="6">
-        <v>16273151</v>
+        <v>13126551</v>
       </c>
       <c r="Y32" s="6">
-        <v>13126551</v>
+        <v>13820352</v>
       </c>
       <c r="Z32" s="6">
-        <v>13820352</v>
+        <v>14231556</v>
       </c>
       <c r="AA32" s="6">
-        <v>14231556</v>
+        <v>14199461</v>
       </c>
       <c r="AB32" s="6">
-        <v>14199461</v>
+        <v>14600389</v>
       </c>
       <c r="AC32" s="6">
-        <v>14600389</v>
+        <v>14159023</v>
       </c>
       <c r="AD32" s="6">
-        <v>14159023</v>
+        <v>13491853</v>
       </c>
       <c r="AE32" s="6">
-        <v>13491853</v>
+        <v>12663010</v>
       </c>
       <c r="AF32" s="6">
-        <v>12663010</v>
+        <v>12439091</v>
       </c>
       <c r="AG32" s="6">
-        <v>12439091</v>
+        <v>11304104</v>
       </c>
       <c r="AH32" s="6">
-        <v>11304104</v>
+        <v>11641149</v>
       </c>
       <c r="AI32" s="6">
-        <v>11641149</v>
+        <v>12297485</v>
       </c>
       <c r="AJ32" s="6">
-        <v>12297485</v>
+        <v>11761905</v>
       </c>
       <c r="AK32" s="6">
-        <v>11761905</v>
-      </c>
-      <c r="AL32" s="6">
         <v>11316315</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>84</v>
+      <c r="B33" s="6">
+        <v>208723</v>
       </c>
       <c r="C33" s="6">
-        <v>208723</v>
+        <v>187831</v>
       </c>
       <c r="D33" s="6">
-        <v>187831</v>
+        <v>142063</v>
       </c>
       <c r="E33" s="6">
-        <v>142063</v>
+        <v>166280</v>
       </c>
       <c r="F33" s="6">
-        <v>166280</v>
+        <v>182503</v>
       </c>
       <c r="G33" s="6">
-        <v>182503</v>
+        <v>160017</v>
       </c>
       <c r="H33" s="6">
-        <v>160017</v>
+        <v>164173</v>
       </c>
       <c r="I33" s="6">
-        <v>164173</v>
+        <v>174357</v>
       </c>
       <c r="J33" s="6">
-        <v>174357</v>
+        <v>158327</v>
       </c>
       <c r="K33" s="6">
-        <v>158327</v>
+        <v>167143</v>
       </c>
       <c r="L33" s="6">
-        <v>167143</v>
+        <v>153393</v>
       </c>
       <c r="M33" s="6">
-        <v>153393</v>
+        <v>165177</v>
       </c>
       <c r="N33" s="6">
-        <v>165177</v>
+        <v>178619</v>
       </c>
       <c r="O33" s="6">
-        <v>178619</v>
+        <v>168312</v>
       </c>
       <c r="P33" s="6">
-        <v>168312</v>
+        <v>165433</v>
       </c>
       <c r="Q33" s="6">
-        <v>165433</v>
+        <v>195678</v>
       </c>
       <c r="R33" s="6">
-        <v>195678</v>
+        <v>141868</v>
       </c>
       <c r="S33" s="6">
-        <v>141868</v>
+        <v>129638</v>
       </c>
       <c r="T33" s="6">
-        <v>129638</v>
+        <v>142220</v>
       </c>
       <c r="U33" s="6">
-        <v>142220</v>
+        <v>147435</v>
       </c>
       <c r="V33" s="6">
-        <v>147435</v>
+        <v>129615</v>
       </c>
       <c r="W33" s="6">
-        <v>129615</v>
+        <v>149393</v>
       </c>
       <c r="X33" s="6">
-        <v>149393</v>
+        <v>120984</v>
       </c>
       <c r="Y33" s="6">
-        <v>120984</v>
+        <v>120575</v>
       </c>
       <c r="Z33" s="6">
-        <v>120575</v>
+        <v>186874</v>
       </c>
       <c r="AA33" s="6">
-        <v>186874</v>
+        <v>154784</v>
       </c>
       <c r="AB33" s="6">
-        <v>154784</v>
+        <v>153805</v>
       </c>
       <c r="AC33" s="6">
-        <v>153805</v>
+        <v>126592</v>
       </c>
       <c r="AD33" s="6">
-        <v>126592</v>
+        <v>134809</v>
       </c>
       <c r="AE33" s="6">
-        <v>134809</v>
+        <v>124399</v>
       </c>
       <c r="AF33" s="6">
-        <v>124399</v>
+        <v>120283</v>
       </c>
       <c r="AG33" s="6">
-        <v>120283</v>
+        <v>82732</v>
       </c>
       <c r="AH33" s="6">
-        <v>82732</v>
+        <v>63846</v>
       </c>
       <c r="AI33" s="6">
-        <v>63846</v>
+        <v>120234</v>
       </c>
       <c r="AJ33" s="6">
-        <v>120234</v>
+        <v>148404</v>
       </c>
       <c r="AK33" s="6">
-        <v>148404</v>
-      </c>
-      <c r="AL33" s="6">
         <v>161549</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>85</v>
+      <c r="B34" s="6">
+        <v>2436314</v>
       </c>
       <c r="C34" s="6">
-        <v>2436314</v>
+        <v>2080164</v>
       </c>
       <c r="D34" s="6">
-        <v>2080164</v>
+        <v>1796395</v>
       </c>
       <c r="E34" s="6">
-        <v>1796395</v>
+        <v>2331213</v>
       </c>
       <c r="F34" s="6">
-        <v>2331213</v>
+        <v>1997081</v>
       </c>
       <c r="G34" s="6">
-        <v>1997081</v>
+        <v>1980665</v>
       </c>
       <c r="H34" s="6">
-        <v>1980665</v>
+        <v>2346866</v>
       </c>
       <c r="I34" s="6">
-        <v>2346866</v>
+        <v>1846654</v>
       </c>
       <c r="J34" s="6">
-        <v>1846654</v>
+        <v>1889942</v>
       </c>
       <c r="K34" s="6">
-        <v>1889942</v>
+        <v>2230746</v>
       </c>
       <c r="L34" s="6">
-        <v>2230746</v>
+        <v>1555403</v>
       </c>
       <c r="M34" s="6">
-        <v>1555403</v>
+        <v>1745549</v>
       </c>
       <c r="N34" s="6">
-        <v>1745549</v>
+        <v>2474945</v>
       </c>
       <c r="O34" s="6">
-        <v>2474945</v>
+        <v>1962051</v>
       </c>
       <c r="P34" s="6">
-        <v>1962051</v>
+        <v>1841158</v>
       </c>
       <c r="Q34" s="6">
-        <v>1841158</v>
+        <v>1938281</v>
       </c>
       <c r="R34" s="6">
-        <v>1938281</v>
+        <v>1798217</v>
       </c>
       <c r="S34" s="6">
-        <v>1798217</v>
+        <v>1827842</v>
       </c>
       <c r="T34" s="6">
-        <v>1827842</v>
+        <v>2052988</v>
       </c>
       <c r="U34" s="6">
-        <v>2052988</v>
+        <v>1601744</v>
       </c>
       <c r="V34" s="6">
-        <v>1601744</v>
+        <v>1717542</v>
       </c>
       <c r="W34" s="6">
-        <v>1717542</v>
+        <v>2113128</v>
       </c>
       <c r="X34" s="6">
-        <v>2113128</v>
+        <v>1515238</v>
       </c>
       <c r="Y34" s="6">
-        <v>1515238</v>
+        <v>1536591</v>
       </c>
       <c r="Z34" s="6">
-        <v>1536591</v>
+        <v>2194528</v>
       </c>
       <c r="AA34" s="6">
-        <v>2194528</v>
+        <v>1715100</v>
       </c>
       <c r="AB34" s="6">
-        <v>1715100</v>
+        <v>1929396</v>
       </c>
       <c r="AC34" s="6">
-        <v>1929396</v>
+        <v>1948535</v>
       </c>
       <c r="AD34" s="6">
-        <v>1948535</v>
+        <v>1701540</v>
       </c>
       <c r="AE34" s="6">
-        <v>1701540</v>
+        <v>1738056</v>
       </c>
       <c r="AF34" s="6">
-        <v>1738056</v>
+        <v>1781093</v>
       </c>
       <c r="AG34" s="6">
-        <v>1781093</v>
+        <v>1486539</v>
       </c>
       <c r="AH34" s="6">
-        <v>1486539</v>
+        <v>1485076</v>
       </c>
       <c r="AI34" s="6">
-        <v>1485076</v>
+        <v>1799350</v>
       </c>
       <c r="AJ34" s="6">
-        <v>1799350</v>
+        <v>1628962</v>
       </c>
       <c r="AK34" s="6">
-        <v>1628962</v>
-      </c>
-      <c r="AL34" s="6">
         <v>1486832</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>86</v>
+      <c r="B35" s="6">
+        <v>493556</v>
       </c>
       <c r="C35" s="6">
-        <v>493556</v>
+        <v>568914</v>
       </c>
       <c r="D35" s="6">
-        <v>568914</v>
+        <v>485221</v>
       </c>
       <c r="E35" s="6">
-        <v>485221</v>
+        <v>581863</v>
       </c>
       <c r="F35" s="6">
-        <v>581863</v>
+        <v>491157</v>
       </c>
       <c r="G35" s="6">
-        <v>491157</v>
+        <v>458576</v>
       </c>
       <c r="H35" s="6">
-        <v>458576</v>
+        <v>459822</v>
       </c>
       <c r="I35" s="6">
-        <v>459822</v>
+        <v>434322</v>
       </c>
       <c r="J35" s="6">
-        <v>434322</v>
+        <v>490339</v>
       </c>
       <c r="K35" s="6">
-        <v>490339</v>
+        <v>493451</v>
       </c>
       <c r="L35" s="6">
-        <v>493451</v>
+        <v>416353</v>
       </c>
       <c r="M35" s="6">
-        <v>416353</v>
+        <v>449835</v>
       </c>
       <c r="N35" s="6">
-        <v>449835</v>
+        <v>510318</v>
       </c>
       <c r="O35" s="6">
-        <v>510318</v>
+        <v>496860</v>
       </c>
       <c r="P35" s="6">
-        <v>496860</v>
+        <v>446283</v>
       </c>
       <c r="Q35" s="6">
-        <v>446283</v>
+        <v>404624</v>
       </c>
       <c r="R35" s="6">
-        <v>404624</v>
+        <v>420105</v>
       </c>
       <c r="S35" s="6">
-        <v>420105</v>
+        <v>607365</v>
       </c>
       <c r="T35" s="6">
-        <v>607365</v>
+        <v>398213</v>
       </c>
       <c r="U35" s="6">
-        <v>398213</v>
+        <v>433990</v>
       </c>
       <c r="V35" s="6">
-        <v>433990</v>
+        <v>443248</v>
       </c>
       <c r="W35" s="6">
-        <v>443248</v>
+        <v>518748</v>
       </c>
       <c r="X35" s="6">
-        <v>518748</v>
+        <v>381358</v>
       </c>
       <c r="Y35" s="6">
-        <v>381358</v>
+        <v>469158</v>
       </c>
       <c r="Z35" s="6">
-        <v>469158</v>
+        <v>499360</v>
       </c>
       <c r="AA35" s="6">
-        <v>499360</v>
+        <v>531378</v>
       </c>
       <c r="AB35" s="6">
-        <v>531378</v>
+        <v>529386</v>
       </c>
       <c r="AC35" s="6">
-        <v>529386</v>
+        <v>485174</v>
       </c>
       <c r="AD35" s="6">
-        <v>485174</v>
+        <v>474306</v>
       </c>
       <c r="AE35" s="6">
-        <v>474306</v>
+        <v>448990</v>
       </c>
       <c r="AF35" s="6">
-        <v>448990</v>
+        <v>367766</v>
       </c>
       <c r="AG35" s="6">
-        <v>367766</v>
+        <v>301644</v>
       </c>
       <c r="AH35" s="6">
-        <v>301644</v>
+        <v>317318</v>
       </c>
       <c r="AI35" s="6">
-        <v>317318</v>
+        <v>380478</v>
       </c>
       <c r="AJ35" s="6">
-        <v>380478</v>
+        <v>470665</v>
       </c>
       <c r="AK35" s="6">
-        <v>470665</v>
-      </c>
-      <c r="AL35" s="6">
         <v>460810</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>87</v>
+      <c r="B36" s="6">
+        <v>1534089</v>
       </c>
       <c r="C36" s="6">
-        <v>1534089</v>
+        <v>1761149</v>
       </c>
       <c r="D36" s="6">
-        <v>1761149</v>
+        <v>1578825</v>
       </c>
       <c r="E36" s="6">
-        <v>1578825</v>
+        <v>1590650</v>
       </c>
       <c r="F36" s="6">
-        <v>1590650</v>
+        <v>1780571</v>
       </c>
       <c r="G36" s="6">
-        <v>1780571</v>
+        <v>1596395</v>
       </c>
       <c r="H36" s="6">
-        <v>1596395</v>
+        <v>1766618</v>
       </c>
       <c r="I36" s="6">
-        <v>1766618</v>
+        <v>1812020</v>
       </c>
       <c r="J36" s="6">
-        <v>1812020</v>
+        <v>1926018</v>
       </c>
       <c r="K36" s="6">
-        <v>1926018</v>
+        <v>1914553</v>
       </c>
       <c r="L36" s="6">
-        <v>1914553</v>
+        <v>1638254</v>
       </c>
       <c r="M36" s="6">
-        <v>1638254</v>
+        <v>1713919</v>
       </c>
       <c r="N36" s="6">
-        <v>1713919</v>
+        <v>1856633</v>
       </c>
       <c r="O36" s="6">
-        <v>1856633</v>
+        <v>1752801</v>
       </c>
       <c r="P36" s="6">
-        <v>1752801</v>
+        <v>1729966</v>
       </c>
       <c r="Q36" s="6">
-        <v>1729966</v>
+        <v>1558075</v>
       </c>
       <c r="R36" s="6">
-        <v>1558075</v>
+        <v>1802617</v>
       </c>
       <c r="S36" s="6">
-        <v>1802617</v>
+        <v>1410985</v>
       </c>
       <c r="T36" s="6">
-        <v>1410985</v>
+        <v>1494154</v>
       </c>
       <c r="U36" s="6">
-        <v>1494154</v>
+        <v>1548079</v>
       </c>
       <c r="V36" s="6">
-        <v>1548079</v>
+        <v>1559580</v>
       </c>
       <c r="W36" s="6">
-        <v>1559580</v>
+        <v>1769980</v>
       </c>
       <c r="X36" s="6">
-        <v>1769980</v>
+        <v>1228114</v>
       </c>
       <c r="Y36" s="6">
-        <v>1228114</v>
+        <v>1513616</v>
       </c>
       <c r="Z36" s="6">
-        <v>1513616</v>
+        <v>1554720</v>
       </c>
       <c r="AA36" s="6">
-        <v>1554720</v>
+        <v>1447946</v>
       </c>
       <c r="AB36" s="6">
-        <v>1447946</v>
+        <v>1566514</v>
       </c>
       <c r="AC36" s="6">
-        <v>1566514</v>
+        <v>1481212</v>
       </c>
       <c r="AD36" s="6">
-        <v>1481212</v>
+        <v>1536585</v>
       </c>
       <c r="AE36" s="6">
-        <v>1536585</v>
+        <v>1411191</v>
       </c>
       <c r="AF36" s="6">
-        <v>1411191</v>
+        <v>1122722</v>
       </c>
       <c r="AG36" s="6">
-        <v>1122722</v>
+        <v>1179687</v>
       </c>
       <c r="AH36" s="6">
-        <v>1179687</v>
+        <v>1363933</v>
       </c>
       <c r="AI36" s="6">
-        <v>1363933</v>
+        <v>1411164</v>
       </c>
       <c r="AJ36" s="6">
-        <v>1411164</v>
+        <v>1476939</v>
       </c>
       <c r="AK36" s="6">
-        <v>1476939</v>
-      </c>
-      <c r="AL36" s="6">
         <v>1452019</v>
       </c>
     </row>
